--- a/doc/服务器协议.xlsx
+++ b/doc/服务器协议.xlsx
@@ -9,11 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="820" yWindow="460" windowWidth="27980" windowHeight="17540" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="820" yWindow="460" windowWidth="27980" windowHeight="17540" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="版本0.1" sheetId="1" r:id="rId1"/>
     <sheet name="版本0.2" sheetId="2" r:id="rId2"/>
+    <sheet name="版本0.3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">版本0.1!$A$1:$F$22</definedName>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="40">
   <si>
     <t>前4Bit协议</t>
   </si>
@@ -126,8 +127,23 @@
     <t>数据长度(2Byte)</t>
   </si>
   <si>
+    <t>数据(长度最多64K)</t>
+  </si>
+  <si>
+    <t>前4Bit协议（服务器类型）</t>
+  </si>
+  <si>
+    <t>后4Bit协议（数据类型）</t>
+  </si>
+  <si>
+    <t>ping标志位(不需要服务器类型)</t>
+  </si>
+  <si>
+    <t>pong标志位(不需要服务器类型)</t>
+  </si>
+  <si>
     <r>
-      <t>Tcp协议分为两个部分，一部分为数据头部，一部分为数据内容。数据头部共9个字节，数据内容长度不限。其中头部分五个部分，第一个部分为一个字节，固定为^；第二部分为四个字节，表示报文在服务器内部的序号；第三部分为一个字节，表示报文的版本号；第四部分为一个字节，表示类型，见协议类型解释；第五部分为2个字节，为数据长度。</t>
+      <t>Tcp协议分为两个部分，一部分为数据头部，一部分为数据内容。数据头部共9个字节，数据内容长度最多64K。其中头部分五个部分，第一个部分为一个字节，固定为^；第二部分为四个字节，表示报文在服务器内部的序号；第三部分为一个字节，表示报文的版本号；第四部分为一个字节，表示类型，见协议类型解释；第五部分为2个字节，为数据长度。</t>
     </r>
     <r>
       <rPr>
@@ -139,19 +155,20 @@
     </r>
   </si>
   <si>
-    <t>数据(长度最多64K)</t>
-  </si>
-  <si>
-    <t>前4Bit协议（服务器类型）</t>
-  </si>
-  <si>
-    <t>后4Bit协议（数据类型）</t>
-  </si>
-  <si>
-    <t>ping标志位(不需要服务器类型)</t>
-  </si>
-  <si>
-    <t>pong标志位(不需要服务器类型)</t>
+    <t>客户端ID(4Byte)</t>
+  </si>
+  <si>
+    <r>
+      <t>Tcp协议分为两个部分，一部分为数据头部，一部分为数据内容。数据头部共13个字节，数据内容长度最多64K。其中头部分五个部分，第一个部分为一个字节，固定为^；第二部分为四个字节，为这条数据返回客户端时的客户端ID；第三部分为一个字节，表示报文的版本号；第四部分为一个字节，表示类型，见协议类型解释；第五部分为2个字节，为数据长度。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>（备注：客户端ID则需要每个TCP客户端发送，这个ID对应用户ID。0-0xFFFF的客户端ID被系统占用，其他留给终端使用。）</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -215,7 +232,7 @@
       <name val="Calibri (Body)"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -232,6 +249,12 @@
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF9BC2E6"/>
+        <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
   </fills>
@@ -305,14 +328,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -351,16 +376,19 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -368,12 +396,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -383,6 +405,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -393,6 +418,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -404,12 +438,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="7">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -700,14 +739,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="44" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
     </row>
     <row r="2" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
@@ -742,234 +781,234 @@
       <c r="F4" s="3"/>
     </row>
     <row r="5" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="15"/>
-      <c r="C5" s="15"/>
-      <c r="D5" s="15"/>
-      <c r="E5" s="16"/>
+      <c r="B5" s="29"/>
+      <c r="C5" s="29"/>
+      <c r="D5" s="29"/>
+      <c r="E5" s="30"/>
     </row>
     <row r="6" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="22" t="s">
+      <c r="B6" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="22"/>
-      <c r="D6" s="22" t="s">
+      <c r="C6" s="21"/>
+      <c r="D6" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="22"/>
+      <c r="E6" s="21"/>
     </row>
     <row r="7" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>0</v>
       </c>
-      <c r="B7" s="17" t="s">
+      <c r="B7" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="18"/>
-      <c r="D7" s="23" t="s">
+      <c r="C7" s="19"/>
+      <c r="D7" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="E7" s="23"/>
+      <c r="E7" s="22"/>
     </row>
     <row r="8" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>1</v>
       </c>
-      <c r="B8" s="17" t="s">
+      <c r="B8" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="18"/>
-      <c r="D8" s="13" t="s">
+      <c r="C8" s="19"/>
+      <c r="D8" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="E8" s="13"/>
+      <c r="E8" s="23"/>
     </row>
     <row r="9" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>2</v>
       </c>
-      <c r="B9" s="19" t="s">
+      <c r="B9" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="20"/>
-      <c r="D9" s="13" t="s">
+      <c r="C9" s="17"/>
+      <c r="D9" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="E9" s="13"/>
+      <c r="E9" s="23"/>
     </row>
     <row r="10" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>3</v>
       </c>
-      <c r="B10" s="19" t="s">
+      <c r="B10" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="20"/>
-      <c r="D10" s="13" t="s">
+      <c r="C10" s="17"/>
+      <c r="D10" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="E10" s="13"/>
+      <c r="E10" s="23"/>
     </row>
     <row r="11" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>4</v>
       </c>
-      <c r="B11" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="C11" s="13"/>
-      <c r="D11" s="13" t="s">
+      <c r="B11" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="23"/>
+      <c r="D11" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="E11" s="13"/>
+      <c r="E11" s="23"/>
     </row>
     <row r="12" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>5</v>
       </c>
-      <c r="B12" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12" s="13"/>
-      <c r="D12" s="13" t="s">
+      <c r="B12" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="23"/>
+      <c r="D12" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="E12" s="13"/>
+      <c r="E12" s="23"/>
     </row>
     <row r="13" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>6</v>
       </c>
-      <c r="B13" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="C13" s="13"/>
-      <c r="D13" s="13" t="s">
+      <c r="B13" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="23"/>
+      <c r="D13" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="E13" s="13"/>
+      <c r="E13" s="23"/>
     </row>
     <row r="14" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>7</v>
       </c>
-      <c r="B14" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="C14" s="13"/>
-      <c r="D14" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="E14" s="13"/>
+      <c r="B14" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" s="23"/>
+      <c r="D14" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="E14" s="23"/>
     </row>
     <row r="15" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <v>8</v>
       </c>
-      <c r="B15" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="C15" s="13"/>
-      <c r="D15" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="E15" s="13"/>
+      <c r="B15" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" s="23"/>
+      <c r="D15" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="E15" s="23"/>
     </row>
     <row r="16" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <v>9</v>
       </c>
-      <c r="B16" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16" s="13"/>
-      <c r="D16" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="E16" s="13"/>
+      <c r="B16" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="23"/>
+      <c r="D16" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="E16" s="23"/>
     </row>
     <row r="17" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B17" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="C17" s="13"/>
-      <c r="D17" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="E17" s="13"/>
+      <c r="B17" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17" s="23"/>
+      <c r="D17" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" s="23"/>
     </row>
     <row r="18" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B18" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="C18" s="13"/>
-      <c r="D18" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="E18" s="13"/>
+      <c r="B18" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="C18" s="23"/>
+      <c r="D18" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="E18" s="23"/>
     </row>
     <row r="19" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B19" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="13"/>
-      <c r="D19" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="E19" s="13"/>
+      <c r="B19" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19" s="23"/>
+      <c r="D19" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="E19" s="23"/>
     </row>
     <row r="20" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B20" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="C20" s="13"/>
-      <c r="D20" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="E20" s="13"/>
+      <c r="B20" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20" s="23"/>
+      <c r="D20" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="E20" s="23"/>
     </row>
     <row r="21" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B21" s="17" t="s">
+      <c r="B21" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="C21" s="18"/>
-      <c r="D21" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="E21" s="13"/>
+      <c r="C21" s="19"/>
+      <c r="D21" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="E21" s="23"/>
     </row>
     <row r="22" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B22" s="19" t="s">
+      <c r="B22" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="C22" s="20"/>
-      <c r="D22" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="E22" s="13"/>
+      <c r="C22" s="17"/>
+      <c r="D22" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="E22" s="23"/>
     </row>
     <row r="23" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="1"/>
@@ -979,6 +1018,28 @@
     </row>
   </sheetData>
   <mergeCells count="38">
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="A5:E5"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="D13:E13"/>
     <mergeCell ref="B9:C9"/>
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="B21:C21"/>
@@ -995,28 +1056,6 @@
     <mergeCell ref="B16:C16"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="E2:F2"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="A5:E5"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="D19:E19"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1028,8 +1067,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11:E11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1042,14 +1081,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="93" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="28" t="s">
-        <v>32</v>
-      </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="30"/>
+      <c r="A1" s="31" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="33"/>
       <c r="G1" s="12"/>
     </row>
     <row r="2" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -1069,7 +1108,7 @@
         <v>31</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -1091,251 +1130,251 @@
       <c r="G4" s="3"/>
     </row>
     <row r="5" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="15"/>
-      <c r="C5" s="15"/>
-      <c r="D5" s="15"/>
-      <c r="E5" s="16"/>
+      <c r="B5" s="29"/>
+      <c r="C5" s="29"/>
+      <c r="D5" s="29"/>
+      <c r="E5" s="30"/>
       <c r="F5" s="8"/>
     </row>
     <row r="6" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="22" t="s">
+      <c r="B6" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" s="21"/>
+      <c r="D6" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="C6" s="22"/>
-      <c r="D6" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="E6" s="22"/>
+      <c r="E6" s="21"/>
       <c r="F6" s="9"/>
     </row>
     <row r="7" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="7">
         <v>0</v>
       </c>
-      <c r="B7" s="17" t="s">
+      <c r="B7" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="18"/>
-      <c r="D7" s="23" t="s">
+      <c r="C7" s="19"/>
+      <c r="D7" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="E7" s="23"/>
+      <c r="E7" s="22"/>
       <c r="F7" s="10"/>
     </row>
     <row r="8" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="7">
         <v>1</v>
       </c>
-      <c r="B8" s="17" t="s">
+      <c r="B8" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="18"/>
-      <c r="D8" s="13" t="s">
+      <c r="C8" s="19"/>
+      <c r="D8" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="E8" s="13"/>
+      <c r="E8" s="23"/>
       <c r="F8" s="11"/>
     </row>
     <row r="9" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="7">
         <v>2</v>
       </c>
-      <c r="B9" s="19" t="s">
+      <c r="B9" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="20"/>
-      <c r="D9" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="E9" s="13"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="E9" s="23"/>
       <c r="F9" s="11"/>
     </row>
     <row r="10" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="7">
         <v>3</v>
       </c>
-      <c r="B10" s="19" t="s">
+      <c r="B10" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="20"/>
-      <c r="D10" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="E10" s="13"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="E10" s="23"/>
       <c r="F10" s="11"/>
     </row>
     <row r="11" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="7">
         <v>4</v>
       </c>
-      <c r="B11" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="C11" s="13"/>
-      <c r="D11" s="13" t="s">
+      <c r="B11" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="23"/>
+      <c r="D11" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="E11" s="13"/>
+      <c r="E11" s="23"/>
       <c r="F11" s="11"/>
     </row>
     <row r="12" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="7">
         <v>5</v>
       </c>
-      <c r="B12" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12" s="13"/>
-      <c r="D12" s="13" t="s">
+      <c r="B12" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="23"/>
+      <c r="D12" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="E12" s="13"/>
+      <c r="E12" s="23"/>
       <c r="F12" s="11"/>
     </row>
     <row r="13" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="7">
         <v>6</v>
       </c>
-      <c r="B13" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="C13" s="13"/>
-      <c r="D13" s="13" t="s">
+      <c r="B13" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="23"/>
+      <c r="D13" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="E13" s="13"/>
+      <c r="E13" s="23"/>
       <c r="F13" s="11"/>
     </row>
     <row r="14" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="7">
         <v>7</v>
       </c>
-      <c r="B14" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="C14" s="13"/>
-      <c r="D14" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="E14" s="13"/>
+      <c r="B14" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" s="23"/>
+      <c r="D14" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="E14" s="23"/>
       <c r="F14" s="11"/>
     </row>
     <row r="15" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="7">
         <v>8</v>
       </c>
-      <c r="B15" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="C15" s="13"/>
-      <c r="D15" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="E15" s="13"/>
+      <c r="B15" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" s="23"/>
+      <c r="D15" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="E15" s="23"/>
       <c r="F15" s="11"/>
     </row>
     <row r="16" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="7">
         <v>9</v>
       </c>
-      <c r="B16" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16" s="13"/>
-      <c r="D16" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="E16" s="13"/>
+      <c r="B16" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="23"/>
+      <c r="D16" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="E16" s="23"/>
       <c r="F16" s="11"/>
     </row>
     <row r="17" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B17" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="C17" s="13"/>
-      <c r="D17" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="E17" s="13"/>
+      <c r="B17" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17" s="23"/>
+      <c r="D17" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" s="23"/>
       <c r="F17" s="11"/>
     </row>
     <row r="18" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B18" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="C18" s="13"/>
-      <c r="D18" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="E18" s="13"/>
+      <c r="B18" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="C18" s="23"/>
+      <c r="D18" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="E18" s="23"/>
       <c r="F18" s="11"/>
     </row>
     <row r="19" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B19" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="13"/>
-      <c r="D19" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="E19" s="13"/>
+      <c r="B19" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19" s="23"/>
+      <c r="D19" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="E19" s="23"/>
       <c r="F19" s="11"/>
     </row>
     <row r="20" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B20" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="C20" s="13"/>
-      <c r="D20" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="E20" s="13"/>
+      <c r="B20" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20" s="23"/>
+      <c r="D20" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="E20" s="23"/>
       <c r="F20" s="11"/>
     </row>
     <row r="21" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B21" s="17" t="s">
+      <c r="B21" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="C21" s="18"/>
-      <c r="D21" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="E21" s="13"/>
+      <c r="C21" s="19"/>
+      <c r="D21" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="E21" s="23"/>
       <c r="F21" s="11"/>
     </row>
     <row r="22" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B22" s="19" t="s">
+      <c r="B22" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="C22" s="20"/>
-      <c r="D22" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="E22" s="13"/>
+      <c r="C22" s="17"/>
+      <c r="D22" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="E22" s="23"/>
       <c r="F22" s="11"/>
     </row>
     <row r="23" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -1346,6 +1385,384 @@
     </row>
   </sheetData>
   <mergeCells count="36">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="A5:E5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:E7"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G23"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="7" width="18" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="101" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="31" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="33"/>
+    </row>
+    <row r="2" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="34" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="F2" s="14" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+    </row>
+    <row r="4" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+    </row>
+    <row r="5" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="29"/>
+      <c r="C5" s="29"/>
+      <c r="D5" s="29"/>
+      <c r="E5" s="30"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+    </row>
+    <row r="6" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" s="21"/>
+      <c r="D6" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="E6" s="21"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+    </row>
+    <row r="7" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="13">
+        <v>0</v>
+      </c>
+      <c r="B7" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="19"/>
+      <c r="D7" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7" s="22"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+    </row>
+    <row r="8" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="13">
+        <v>1</v>
+      </c>
+      <c r="B8" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="19"/>
+      <c r="D8" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" s="23"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+    </row>
+    <row r="9" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="13">
+        <v>2</v>
+      </c>
+      <c r="B9" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="17"/>
+      <c r="D9" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="E9" s="23"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+    </row>
+    <row r="10" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="13">
+        <v>3</v>
+      </c>
+      <c r="B10" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="17"/>
+      <c r="D10" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="E10" s="23"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+    </row>
+    <row r="11" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="13">
+        <v>4</v>
+      </c>
+      <c r="B11" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="23"/>
+      <c r="D11" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="E11" s="23"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+    </row>
+    <row r="12" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="13">
+        <v>5</v>
+      </c>
+      <c r="B12" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="23"/>
+      <c r="D12" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="E12" s="23"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+    </row>
+    <row r="13" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="13">
+        <v>6</v>
+      </c>
+      <c r="B13" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="23"/>
+      <c r="D13" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="E13" s="23"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
+    </row>
+    <row r="14" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="13">
+        <v>7</v>
+      </c>
+      <c r="B14" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" s="23"/>
+      <c r="D14" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="E14" s="23"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
+    </row>
+    <row r="15" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="13">
+        <v>8</v>
+      </c>
+      <c r="B15" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" s="23"/>
+      <c r="D15" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="E15" s="23"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11"/>
+    </row>
+    <row r="16" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="13">
+        <v>9</v>
+      </c>
+      <c r="B16" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="23"/>
+      <c r="D16" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="E16" s="23"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="11"/>
+    </row>
+    <row r="17" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="B17" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17" s="23"/>
+      <c r="D17" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" s="23"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="11"/>
+    </row>
+    <row r="18" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B18" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="C18" s="23"/>
+      <c r="D18" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="E18" s="23"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="11"/>
+    </row>
+    <row r="19" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="B19" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19" s="23"/>
+      <c r="D19" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="E19" s="23"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="11"/>
+    </row>
+    <row r="20" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B20" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20" s="23"/>
+      <c r="D20" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="E20" s="23"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="11"/>
+    </row>
+    <row r="21" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="B21" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="C21" s="19"/>
+      <c r="D21" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="E21" s="23"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="11"/>
+    </row>
+    <row r="22" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="B22" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="C22" s="17"/>
+      <c r="D22" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="E22" s="23"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="11"/>
+    </row>
+    <row r="23" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="36">
+    <mergeCell ref="A1:G1"/>
     <mergeCell ref="A5:E5"/>
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="D6:E6"/>
@@ -1361,27 +1778,26 @@
     <mergeCell ref="D11:E11"/>
     <mergeCell ref="B12:C12"/>
     <mergeCell ref="D12:E12"/>
+    <mergeCell ref="B13:C13"/>
     <mergeCell ref="D13:E13"/>
     <mergeCell ref="B14:C14"/>
     <mergeCell ref="D14:E14"/>
     <mergeCell ref="B15:C15"/>
     <mergeCell ref="D15:E15"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:E18"/>
     <mergeCell ref="B19:C19"/>
     <mergeCell ref="D19:E19"/>
     <mergeCell ref="B20:C20"/>
     <mergeCell ref="D20:E20"/>
     <mergeCell ref="B21:C21"/>
     <mergeCell ref="D21:E21"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:E22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/doc/服务器协议.xlsx
+++ b/doc/服务器协议.xlsx
@@ -15,6 +15,8 @@
     <sheet name="版本0.1" sheetId="1" r:id="rId1"/>
     <sheet name="版本0.2" sheetId="2" r:id="rId2"/>
     <sheet name="版本0.3" sheetId="3" r:id="rId3"/>
+    <sheet name="配置文件协议说明" sheetId="4" r:id="rId4"/>
+    <sheet name="配置服务器协议说明" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">版本0.1!$A$1:$F$22</definedName>
@@ -29,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="77">
   <si>
     <t>前4Bit协议</t>
   </si>
@@ -158,6 +160,68 @@
     <t>客户端ID(4Byte)</t>
   </si>
   <si>
+    <t>配置服务器协议（不包含头部）</t>
+  </si>
+  <si>
+    <t>目标为连接服务器</t>
+  </si>
+  <si>
+    <t>配置文件协议</t>
+  </si>
+  <si>
+    <t>identity</t>
+  </si>
+  <si>
+    <t>标识服务的身份，可能的值为：major-config-server(主配置服务器)、minor-config-server(次配置服务器)、</t>
+  </si>
+  <si>
+    <t>Major-Config配置文件</t>
+  </si>
+  <si>
+    <t>"identity": "major-config-server"；标志为major-server
+port：监听的端口号；
+version:版本号；
+"check-client-disconnect-period" : 600000;检测客户端是否断开的时间周期，单位为毫秒</t>
+  </si>
+  <si>
+    <t>Minor-config配置文件</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  "identity": "minor-config-server",
+  "client-id" : 1,
+  "port" : 8090,
+  "version" : 1,
+  "major-config-server-ip" : "127.0.0.1",
+  "major-config-server-port" : 8081,
+  "manager-server-type" : 64,
+  "manager-server-num" : 1,
+  "check-client-disconnect-period" : 600000
+</t>
+  </si>
+  <si>
+    <t>2)Minor向Major更新自己的信息</t>
+  </si>
+  <si>
+    <t>1)Minor通知Major自己的信息</t>
+  </si>
+  <si>
+    <t>{
+msg_type:update_identification,(为标志协议消息)
+identity:minor_config,(标识服务种类)，
+client-id:(minor的客户端id，必填，必须和协议1中id一样),
+micro_server_num:1,(微服务的数量，可选)
+}</t>
+  </si>
+  <si>
+    <t>{
+msg_type:identification,(为标志协议消息)
+identity:minor_config,(标识服务种类)
+client-id:(minor的客户端id，后面不能修改),
+micro_server_type:(微服务的种类，协议中server_type的一种，为数字，必填),
+micro_server_num:1,(微服务的数量，必填)
+}</t>
+  </si>
+  <si>
     <r>
       <t>Tcp协议分为两个部分，一部分为数据头部，一部分为数据内容。数据头部共13个字节，数据内容长度最多64K。其中头部分五个部分，第一个部分为一个字节，固定为^；第二部分为四个字节，为这条数据返回客户端时的客户端ID；第三部分为一个字节，表示报文的版本号；第四部分为一个字节，表示类型，见协议类型解释；第五部分为2个字节，为数据长度。</t>
     </r>
@@ -167,15 +231,87 @@
         <color rgb="FFFF0000"/>
         <rFont val="Calibri (Body)"/>
       </rPr>
-      <t>（备注：客户端ID则需要每个TCP客户端发送，这个ID对应用户ID。0-0xFFFF的客户端ID被系统占用，其他留给终端使用。）</t>
+      <t>（备注：客户端ID则需要每个TCP客户端发送，这个ID对应用户ID。0-0xFFFF的客户端ID被系统占用，其他留给终端使用,其中0表示客户端没有登录服务器；服务器内部传递协议不加密，数据部分直接使用JSON。）</t>
     </r>
+  </si>
+  <si>
+    <t>服务器端口号分布</t>
+  </si>
+  <si>
+    <t>连接服务器</t>
+  </si>
+  <si>
+    <t>路由服务器</t>
+  </si>
+  <si>
+    <t>业务服务器</t>
+  </si>
+  <si>
+    <t>数据库服务器</t>
+  </si>
+  <si>
+    <t>9100-9109</t>
+  </si>
+  <si>
+    <t>9110-9119</t>
+  </si>
+  <si>
+    <t>9120-9229</t>
+  </si>
+  <si>
+    <t>验证服务器</t>
+  </si>
+  <si>
+    <t>9130-9139</t>
+  </si>
+  <si>
+    <t>其他</t>
+  </si>
+  <si>
+    <t>其他微服务器</t>
+  </si>
+  <si>
+    <t>9140-9169</t>
+  </si>
+  <si>
+    <t>配置管理</t>
+  </si>
+  <si>
+    <t>9170-9199</t>
+  </si>
+  <si>
+    <t>客户端ID分布说明</t>
+  </si>
+  <si>
+    <t>客户端没有登录</t>
+  </si>
+  <si>
+    <t>临时分配的客户端ID</t>
+  </si>
+  <si>
+    <t>1-65535</t>
+  </si>
+  <si>
+    <t>服务器中Tcp Client所使用的ID</t>
+  </si>
+  <si>
+    <t>终端用户的ID</t>
+  </si>
+  <si>
+    <t>0x70000000-0x7FFFFFFF</t>
+  </si>
+  <si>
+    <t>65536-0x5FFFFFFF</t>
+  </si>
+  <si>
+    <t>0x60000000-0x6FFFFFFF</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -231,8 +367,30 @@
       <color rgb="FFFF0000"/>
       <name val="Calibri (Body)"/>
     </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -255,6 +413,24 @@
       <patternFill patternType="solid">
         <fgColor rgb="FF9BC2E6"/>
         <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -337,7 +513,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -375,60 +551,91 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -438,8 +645,65 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -727,7 +991,7 @@
   <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A1:XFD1048576"/>
+      <selection activeCell="D15" sqref="D15:E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -739,14 +1003,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="44" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="35" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
     </row>
     <row r="2" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
@@ -755,14 +1019,14 @@
       <c r="B2" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="24" t="s">
+      <c r="C2" s="38" t="s">
         <v>25</v>
       </c>
-      <c r="D2" s="25"/>
-      <c r="E2" s="26" t="s">
+      <c r="D2" s="39"/>
+      <c r="E2" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="F2" s="27"/>
+      <c r="F2" s="41"/>
     </row>
     <row r="3" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3"/>
@@ -793,222 +1057,222 @@
       <c r="A6" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="21" t="s">
+      <c r="B6" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="21"/>
-      <c r="D6" s="21" t="s">
+      <c r="C6" s="36"/>
+      <c r="D6" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="21"/>
+      <c r="E6" s="36"/>
     </row>
     <row r="7" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>0</v>
       </c>
-      <c r="B7" s="18" t="s">
+      <c r="B7" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="19"/>
-      <c r="D7" s="22" t="s">
+      <c r="C7" s="32"/>
+      <c r="D7" s="37" t="s">
         <v>28</v>
       </c>
-      <c r="E7" s="22"/>
+      <c r="E7" s="37"/>
     </row>
     <row r="8" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>1</v>
       </c>
-      <c r="B8" s="18" t="s">
+      <c r="B8" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="19"/>
-      <c r="D8" s="23" t="s">
+      <c r="C8" s="32"/>
+      <c r="D8" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="E8" s="23"/>
+      <c r="E8" s="27"/>
     </row>
     <row r="9" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>2</v>
       </c>
-      <c r="B9" s="16" t="s">
+      <c r="B9" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="17"/>
-      <c r="D9" s="23" t="s">
+      <c r="C9" s="34"/>
+      <c r="D9" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="E9" s="23"/>
+      <c r="E9" s="27"/>
     </row>
     <row r="10" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>3</v>
       </c>
-      <c r="B10" s="16" t="s">
+      <c r="B10" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="17"/>
-      <c r="D10" s="23" t="s">
+      <c r="C10" s="34"/>
+      <c r="D10" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="E10" s="23"/>
+      <c r="E10" s="27"/>
     </row>
     <row r="11" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>4</v>
       </c>
-      <c r="B11" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="C11" s="23"/>
-      <c r="D11" s="23" t="s">
+      <c r="B11" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="27"/>
+      <c r="D11" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="E11" s="23"/>
+      <c r="E11" s="27"/>
     </row>
     <row r="12" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>5</v>
       </c>
-      <c r="B12" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12" s="23"/>
-      <c r="D12" s="23" t="s">
+      <c r="B12" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="27"/>
+      <c r="D12" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="E12" s="23"/>
+      <c r="E12" s="27"/>
     </row>
     <row r="13" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>6</v>
       </c>
-      <c r="B13" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="C13" s="23"/>
-      <c r="D13" s="23" t="s">
+      <c r="B13" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="27"/>
+      <c r="D13" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="E13" s="23"/>
+      <c r="E13" s="27"/>
     </row>
     <row r="14" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>7</v>
       </c>
-      <c r="B14" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="C14" s="23"/>
-      <c r="D14" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="E14" s="23"/>
+      <c r="B14" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" s="27"/>
+      <c r="D14" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="E14" s="27"/>
     </row>
     <row r="15" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <v>8</v>
       </c>
-      <c r="B15" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="C15" s="23"/>
-      <c r="D15" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="E15" s="23"/>
+      <c r="B15" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" s="27"/>
+      <c r="D15" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="E15" s="27"/>
     </row>
     <row r="16" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <v>9</v>
       </c>
-      <c r="B16" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16" s="23"/>
-      <c r="D16" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="E16" s="23"/>
+      <c r="B16" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="27"/>
+      <c r="D16" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="E16" s="27"/>
     </row>
     <row r="17" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B17" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="C17" s="23"/>
-      <c r="D17" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="E17" s="23"/>
+      <c r="B17" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17" s="27"/>
+      <c r="D17" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" s="27"/>
     </row>
     <row r="18" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B18" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="C18" s="23"/>
-      <c r="D18" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="E18" s="23"/>
+      <c r="B18" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="C18" s="27"/>
+      <c r="D18" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="E18" s="27"/>
     </row>
     <row r="19" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B19" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="23"/>
-      <c r="D19" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="E19" s="23"/>
+      <c r="B19" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19" s="27"/>
+      <c r="D19" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="E19" s="27"/>
     </row>
     <row r="20" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B20" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="C20" s="23"/>
-      <c r="D20" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="E20" s="23"/>
+      <c r="B20" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20" s="27"/>
+      <c r="D20" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="E20" s="27"/>
     </row>
     <row r="21" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B21" s="18" t="s">
+      <c r="B21" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="C21" s="19"/>
-      <c r="D21" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="E21" s="23"/>
+      <c r="C21" s="32"/>
+      <c r="D21" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="E21" s="27"/>
     </row>
     <row r="22" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B22" s="16" t="s">
+      <c r="B22" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="C22" s="17"/>
-      <c r="D22" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="E22" s="23"/>
+      <c r="C22" s="34"/>
+      <c r="D22" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="E22" s="27"/>
     </row>
     <row r="23" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="1"/>
@@ -1018,12 +1282,22 @@
     </row>
   </sheetData>
   <mergeCells count="38">
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:F2"/>
     <mergeCell ref="D14:E14"/>
     <mergeCell ref="D15:E15"/>
     <mergeCell ref="D16:E16"/>
@@ -1040,22 +1314,12 @@
     <mergeCell ref="B8:C8"/>
     <mergeCell ref="D8:E8"/>
     <mergeCell ref="D13:E13"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="D19:E19"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1081,14 +1345,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="93" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="42" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="33"/>
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="44"/>
       <c r="G1" s="12"/>
     </row>
     <row r="2" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -1143,238 +1407,238 @@
       <c r="A6" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="21" t="s">
+      <c r="B6" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="C6" s="21"/>
-      <c r="D6" s="21" t="s">
+      <c r="C6" s="36"/>
+      <c r="D6" s="36" t="s">
         <v>34</v>
       </c>
-      <c r="E6" s="21"/>
+      <c r="E6" s="36"/>
       <c r="F6" s="9"/>
     </row>
     <row r="7" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="7">
         <v>0</v>
       </c>
-      <c r="B7" s="18" t="s">
+      <c r="B7" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="19"/>
-      <c r="D7" s="22" t="s">
+      <c r="C7" s="32"/>
+      <c r="D7" s="37" t="s">
         <v>28</v>
       </c>
-      <c r="E7" s="22"/>
+      <c r="E7" s="37"/>
       <c r="F7" s="10"/>
     </row>
     <row r="8" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="7">
         <v>1</v>
       </c>
-      <c r="B8" s="18" t="s">
+      <c r="B8" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="19"/>
-      <c r="D8" s="23" t="s">
+      <c r="C8" s="32"/>
+      <c r="D8" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="E8" s="23"/>
+      <c r="E8" s="27"/>
       <c r="F8" s="11"/>
     </row>
     <row r="9" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="7">
         <v>2</v>
       </c>
-      <c r="B9" s="16" t="s">
+      <c r="B9" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="17"/>
-      <c r="D9" s="23" t="s">
+      <c r="C9" s="34"/>
+      <c r="D9" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="E9" s="23"/>
+      <c r="E9" s="27"/>
       <c r="F9" s="11"/>
     </row>
     <row r="10" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="7">
         <v>3</v>
       </c>
-      <c r="B10" s="16" t="s">
+      <c r="B10" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="17"/>
-      <c r="D10" s="23" t="s">
+      <c r="C10" s="34"/>
+      <c r="D10" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="E10" s="23"/>
+      <c r="E10" s="27"/>
       <c r="F10" s="11"/>
     </row>
     <row r="11" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="7">
         <v>4</v>
       </c>
-      <c r="B11" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="C11" s="23"/>
-      <c r="D11" s="23" t="s">
+      <c r="B11" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="27"/>
+      <c r="D11" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="E11" s="23"/>
+      <c r="E11" s="27"/>
       <c r="F11" s="11"/>
     </row>
     <row r="12" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="7">
         <v>5</v>
       </c>
-      <c r="B12" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12" s="23"/>
-      <c r="D12" s="23" t="s">
+      <c r="B12" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="27"/>
+      <c r="D12" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="E12" s="23"/>
+      <c r="E12" s="27"/>
       <c r="F12" s="11"/>
     </row>
     <row r="13" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="7">
         <v>6</v>
       </c>
-      <c r="B13" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="C13" s="23"/>
-      <c r="D13" s="23" t="s">
+      <c r="B13" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="27"/>
+      <c r="D13" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="E13" s="23"/>
+      <c r="E13" s="27"/>
       <c r="F13" s="11"/>
     </row>
     <row r="14" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="7">
         <v>7</v>
       </c>
-      <c r="B14" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="C14" s="23"/>
-      <c r="D14" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="E14" s="23"/>
+      <c r="B14" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" s="27"/>
+      <c r="D14" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="E14" s="27"/>
       <c r="F14" s="11"/>
     </row>
     <row r="15" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="7">
         <v>8</v>
       </c>
-      <c r="B15" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="C15" s="23"/>
-      <c r="D15" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="E15" s="23"/>
+      <c r="B15" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" s="27"/>
+      <c r="D15" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="E15" s="27"/>
       <c r="F15" s="11"/>
     </row>
     <row r="16" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="7">
         <v>9</v>
       </c>
-      <c r="B16" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16" s="23"/>
-      <c r="D16" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="E16" s="23"/>
+      <c r="B16" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="27"/>
+      <c r="D16" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="E16" s="27"/>
       <c r="F16" s="11"/>
     </row>
     <row r="17" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B17" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="C17" s="23"/>
-      <c r="D17" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="E17" s="23"/>
+      <c r="B17" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17" s="27"/>
+      <c r="D17" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" s="27"/>
       <c r="F17" s="11"/>
     </row>
     <row r="18" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B18" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="C18" s="23"/>
-      <c r="D18" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="E18" s="23"/>
+      <c r="B18" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="C18" s="27"/>
+      <c r="D18" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="E18" s="27"/>
       <c r="F18" s="11"/>
     </row>
     <row r="19" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B19" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="23"/>
-      <c r="D19" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="E19" s="23"/>
+      <c r="B19" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19" s="27"/>
+      <c r="D19" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="E19" s="27"/>
       <c r="F19" s="11"/>
     </row>
     <row r="20" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B20" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="C20" s="23"/>
-      <c r="D20" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="E20" s="23"/>
+      <c r="B20" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20" s="27"/>
+      <c r="D20" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="E20" s="27"/>
       <c r="F20" s="11"/>
     </row>
     <row r="21" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B21" s="18" t="s">
+      <c r="B21" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="C21" s="19"/>
-      <c r="D21" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="E21" s="23"/>
+      <c r="C21" s="32"/>
+      <c r="D21" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="E21" s="27"/>
       <c r="F21" s="11"/>
     </row>
     <row r="22" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B22" s="16" t="s">
+      <c r="B22" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="C22" s="17"/>
-      <c r="D22" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="E22" s="23"/>
+      <c r="C22" s="34"/>
+      <c r="D22" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="E22" s="27"/>
       <c r="F22" s="11"/>
     </row>
     <row r="23" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -1385,6 +1649,26 @@
     </row>
   </sheetData>
   <mergeCells count="36">
+    <mergeCell ref="A5:E5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="D13:E13"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="B19:C19"/>
     <mergeCell ref="D19:E19"/>
@@ -1401,26 +1685,6 @@
     <mergeCell ref="D14:E14"/>
     <mergeCell ref="B15:C15"/>
     <mergeCell ref="D15:E15"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="A5:E5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:E7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1428,33 +1692,35 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G23"/>
+  <dimension ref="A1:I140"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="7" width="18" customWidth="1"/>
+    <col min="8" max="8" width="41.6640625" customWidth="1"/>
+    <col min="9" max="9" width="83.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="101" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="31" t="s">
-        <v>39</v>
-      </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="33"/>
+      <c r="A1" s="42" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="44"/>
     </row>
     <row r="2" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="34" t="s">
+      <c r="B2" s="15" t="s">
         <v>38</v>
       </c>
       <c r="C2" s="5" t="s">
@@ -1463,10 +1729,10 @@
       <c r="D2" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="E2" s="15" t="s">
+      <c r="E2" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="F2" s="14" t="s">
+      <c r="F2" s="13" t="s">
         <v>32</v>
       </c>
     </row>
@@ -1489,279 +1755,1460 @@
       <c r="G4" s="3"/>
     </row>
     <row r="5" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="28" t="s">
+      <c r="A5" s="48" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="29"/>
-      <c r="C5" s="29"/>
-      <c r="D5" s="29"/>
-      <c r="E5" s="30"/>
+      <c r="B5" s="49"/>
+      <c r="C5" s="49"/>
+      <c r="D5" s="49"/>
+      <c r="E5" s="50"/>
       <c r="F5" s="8"/>
       <c r="G5" s="8"/>
     </row>
     <row r="6" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="13" t="s">
+      <c r="A6" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="21" t="s">
+      <c r="B6" s="51" t="s">
         <v>33</v>
       </c>
-      <c r="C6" s="21"/>
-      <c r="D6" s="21" t="s">
+      <c r="C6" s="51"/>
+      <c r="D6" s="51" t="s">
         <v>34</v>
       </c>
-      <c r="E6" s="21"/>
+      <c r="E6" s="51"/>
       <c r="F6" s="9"/>
       <c r="G6" s="9"/>
     </row>
     <row r="7" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="13">
+      <c r="A7" s="26">
         <v>0</v>
       </c>
-      <c r="B7" s="18" t="s">
+      <c r="B7" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="19"/>
-      <c r="D7" s="22" t="s">
+      <c r="C7" s="53"/>
+      <c r="D7" s="54" t="s">
         <v>28</v>
       </c>
-      <c r="E7" s="22"/>
+      <c r="E7" s="54"/>
       <c r="F7" s="10"/>
       <c r="G7" s="10"/>
     </row>
     <row r="8" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="13">
+      <c r="A8" s="26">
         <v>1</v>
       </c>
-      <c r="B8" s="18" t="s">
+      <c r="B8" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="19"/>
-      <c r="D8" s="23" t="s">
+      <c r="C8" s="53"/>
+      <c r="D8" s="55" t="s">
         <v>20</v>
       </c>
-      <c r="E8" s="23"/>
+      <c r="E8" s="55"/>
       <c r="F8" s="11"/>
       <c r="G8" s="11"/>
     </row>
     <row r="9" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="13">
+      <c r="A9" s="26">
         <v>2</v>
       </c>
-      <c r="B9" s="16" t="s">
+      <c r="B9" s="56" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="17"/>
-      <c r="D9" s="23" t="s">
+      <c r="C9" s="57"/>
+      <c r="D9" s="55" t="s">
         <v>35</v>
       </c>
-      <c r="E9" s="23"/>
+      <c r="E9" s="55"/>
       <c r="F9" s="11"/>
       <c r="G9" s="11"/>
     </row>
     <row r="10" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="13">
+      <c r="A10" s="26">
         <v>3</v>
       </c>
-      <c r="B10" s="16" t="s">
+      <c r="B10" s="56" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="17"/>
-      <c r="D10" s="23" t="s">
+      <c r="C10" s="57"/>
+      <c r="D10" s="55" t="s">
         <v>36</v>
       </c>
-      <c r="E10" s="23"/>
+      <c r="E10" s="55"/>
       <c r="F10" s="11"/>
       <c r="G10" s="11"/>
     </row>
     <row r="11" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="13">
+      <c r="A11" s="26">
         <v>4</v>
       </c>
-      <c r="B11" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="C11" s="23"/>
-      <c r="D11" s="23" t="s">
+      <c r="B11" s="55" t="s">
+        <v>40</v>
+      </c>
+      <c r="C11" s="55"/>
+      <c r="D11" s="55" t="s">
         <v>17</v>
       </c>
-      <c r="E11" s="23"/>
+      <c r="E11" s="55"/>
       <c r="F11" s="11"/>
       <c r="G11" s="11"/>
     </row>
     <row r="12" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="13">
+      <c r="A12" s="26">
         <v>5</v>
       </c>
-      <c r="B12" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12" s="23"/>
-      <c r="D12" s="23" t="s">
+      <c r="B12" s="55" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="55"/>
+      <c r="D12" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="E12" s="23"/>
+      <c r="E12" s="55"/>
       <c r="F12" s="11"/>
       <c r="G12" s="11"/>
     </row>
     <row r="13" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="13">
+      <c r="A13" s="26">
         <v>6</v>
       </c>
-      <c r="B13" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="C13" s="23"/>
-      <c r="D13" s="23" t="s">
+      <c r="B13" s="55" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="55"/>
+      <c r="D13" s="55" t="s">
         <v>19</v>
       </c>
-      <c r="E13" s="23"/>
+      <c r="E13" s="55"/>
       <c r="F13" s="11"/>
       <c r="G13" s="11"/>
     </row>
     <row r="14" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="13">
+      <c r="A14" s="26">
         <v>7</v>
       </c>
-      <c r="B14" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="C14" s="23"/>
-      <c r="D14" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="E14" s="23"/>
+      <c r="B14" s="55" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" s="55"/>
+      <c r="D14" s="55" t="s">
+        <v>10</v>
+      </c>
+      <c r="E14" s="55"/>
       <c r="F14" s="11"/>
       <c r="G14" s="11"/>
     </row>
     <row r="15" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="13">
+      <c r="A15" s="26">
         <v>8</v>
       </c>
-      <c r="B15" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="C15" s="23"/>
-      <c r="D15" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="E15" s="23"/>
+      <c r="B15" s="55" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" s="55"/>
+      <c r="D15" s="55" t="s">
+        <v>10</v>
+      </c>
+      <c r="E15" s="55"/>
       <c r="F15" s="11"/>
       <c r="G15" s="11"/>
     </row>
     <row r="16" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="13">
+      <c r="A16" s="26">
         <v>9</v>
       </c>
-      <c r="B16" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16" s="23"/>
-      <c r="D16" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="E16" s="23"/>
+      <c r="B16" s="55" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="55"/>
+      <c r="D16" s="55" t="s">
+        <v>10</v>
+      </c>
+      <c r="E16" s="55"/>
       <c r="F16" s="11"/>
       <c r="G16" s="11"/>
     </row>
-    <row r="17" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="13" t="s">
+    <row r="17" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="B17" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="C17" s="23"/>
-      <c r="D17" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="E17" s="23"/>
+      <c r="B17" s="55" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17" s="55"/>
+      <c r="D17" s="55" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" s="55"/>
       <c r="F17" s="11"/>
       <c r="G17" s="11"/>
     </row>
-    <row r="18" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="13" t="s">
+    <row r="18" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="B18" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="C18" s="23"/>
-      <c r="D18" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="E18" s="23"/>
+      <c r="B18" s="55" t="s">
+        <v>10</v>
+      </c>
+      <c r="C18" s="55"/>
+      <c r="D18" s="55" t="s">
+        <v>10</v>
+      </c>
+      <c r="E18" s="55"/>
       <c r="F18" s="11"/>
       <c r="G18" s="11"/>
     </row>
-    <row r="19" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="13" t="s">
+    <row r="19" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="B19" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="23"/>
-      <c r="D19" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="E19" s="23"/>
+      <c r="B19" s="55" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19" s="55"/>
+      <c r="D19" s="55" t="s">
+        <v>10</v>
+      </c>
+      <c r="E19" s="55"/>
       <c r="F19" s="11"/>
       <c r="G19" s="11"/>
     </row>
-    <row r="20" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="13" t="s">
+    <row r="20" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="B20" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="C20" s="23"/>
-      <c r="D20" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="E20" s="23"/>
+      <c r="B20" s="55" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20" s="55"/>
+      <c r="D20" s="55" t="s">
+        <v>10</v>
+      </c>
+      <c r="E20" s="55"/>
       <c r="F20" s="11"/>
       <c r="G20" s="11"/>
     </row>
-    <row r="21" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="13" t="s">
+    <row r="21" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="B21" s="18" t="s">
+      <c r="B21" s="52" t="s">
         <v>11</v>
       </c>
-      <c r="C21" s="19"/>
-      <c r="D21" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="E21" s="23"/>
+      <c r="C21" s="53"/>
+      <c r="D21" s="55" t="s">
+        <v>10</v>
+      </c>
+      <c r="E21" s="55"/>
       <c r="F21" s="11"/>
       <c r="G21" s="11"/>
     </row>
-    <row r="22" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="13" t="s">
+    <row r="22" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="B22" s="16" t="s">
+      <c r="B22" s="56" t="s">
         <v>12</v>
       </c>
-      <c r="C22" s="17"/>
-      <c r="D22" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="E22" s="23"/>
+      <c r="C22" s="57"/>
+      <c r="D22" s="55" t="s">
+        <v>10</v>
+      </c>
+      <c r="E22" s="55"/>
       <c r="F22" s="11"/>
       <c r="G22" s="11"/>
     </row>
-    <row r="23" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
     </row>
+    <row r="24" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="45" t="s">
+        <v>53</v>
+      </c>
+      <c r="B24" s="45"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+    </row>
+    <row r="25" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="B25" s="22">
+        <v>9099</v>
+      </c>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+    </row>
+    <row r="26" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="B26" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+    </row>
+    <row r="27" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="B27" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
+    </row>
+    <row r="28" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="B28" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
+    </row>
+    <row r="29" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="B29" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="1"/>
+    </row>
+    <row r="30" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="B30" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1"/>
+    </row>
+    <row r="31" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="B31" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1"/>
+    </row>
+    <row r="32" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="1"/>
+      <c r="B32" s="1"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+      <c r="H32" s="1"/>
+      <c r="I32" s="1"/>
+    </row>
+    <row r="33" spans="1:9" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="46" t="s">
+        <v>68</v>
+      </c>
+      <c r="B33" s="46"/>
+      <c r="C33" s="46"/>
+      <c r="D33" s="20"/>
+      <c r="E33" s="20"/>
+      <c r="F33" s="1"/>
+      <c r="H33" s="1"/>
+      <c r="I33" s="1"/>
+    </row>
+    <row r="34" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="23">
+        <v>0</v>
+      </c>
+      <c r="B34" s="47" t="s">
+        <v>69</v>
+      </c>
+      <c r="C34" s="47"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
+      <c r="H34" s="1"/>
+      <c r="I34" s="1"/>
+    </row>
+    <row r="35" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="B35" s="47" t="s">
+        <v>72</v>
+      </c>
+      <c r="C35" s="47"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
+      <c r="H35" s="1"/>
+      <c r="I35" s="1"/>
+    </row>
+    <row r="36" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="B36" s="47" t="s">
+        <v>73</v>
+      </c>
+      <c r="C36" s="47"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
+      <c r="H36" s="1"/>
+      <c r="I36" s="1"/>
+    </row>
+    <row r="37" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="B37" s="47" t="s">
+        <v>63</v>
+      </c>
+      <c r="C37" s="47"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
+      <c r="H37" s="1"/>
+      <c r="I37" s="1"/>
+    </row>
+    <row r="38" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="B38" s="47" t="s">
+        <v>70</v>
+      </c>
+      <c r="C38" s="47"/>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1"/>
+      <c r="F38" s="1"/>
+      <c r="H38" s="1"/>
+      <c r="I38" s="1"/>
+    </row>
+    <row r="39" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="1"/>
+      <c r="B39" s="1"/>
+      <c r="C39" s="1"/>
+      <c r="D39" s="1"/>
+      <c r="E39" s="1"/>
+      <c r="F39" s="1"/>
+      <c r="H39" s="1"/>
+      <c r="I39" s="1"/>
+    </row>
+    <row r="40" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="1"/>
+      <c r="B40" s="1"/>
+      <c r="C40" s="1"/>
+      <c r="D40" s="1"/>
+      <c r="E40" s="1"/>
+      <c r="F40" s="1"/>
+      <c r="H40" s="1"/>
+      <c r="I40" s="1"/>
+    </row>
+    <row r="41" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="1"/>
+      <c r="B41" s="1"/>
+      <c r="C41" s="1"/>
+      <c r="D41" s="1"/>
+      <c r="E41" s="1"/>
+      <c r="F41" s="1"/>
+      <c r="H41" s="1"/>
+      <c r="I41" s="1"/>
+    </row>
+    <row r="42" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="1"/>
+      <c r="B42" s="1"/>
+      <c r="C42" s="1"/>
+      <c r="D42" s="1"/>
+      <c r="E42" s="1"/>
+      <c r="F42" s="1"/>
+      <c r="H42" s="1"/>
+      <c r="I42" s="1"/>
+    </row>
+    <row r="43" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="1"/>
+      <c r="B43" s="1"/>
+      <c r="C43" s="1"/>
+      <c r="D43" s="1"/>
+      <c r="E43" s="1"/>
+      <c r="F43" s="1"/>
+      <c r="H43" s="1"/>
+      <c r="I43" s="1"/>
+    </row>
+    <row r="44" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="1"/>
+      <c r="B44" s="1"/>
+      <c r="C44" s="1"/>
+      <c r="D44" s="1"/>
+      <c r="E44" s="1"/>
+      <c r="F44" s="1"/>
+      <c r="H44" s="1"/>
+      <c r="I44" s="1"/>
+    </row>
+    <row r="45" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="1"/>
+      <c r="B45" s="1"/>
+      <c r="C45" s="1"/>
+      <c r="D45" s="1"/>
+      <c r="E45" s="1"/>
+      <c r="F45" s="1"/>
+      <c r="H45" s="1"/>
+      <c r="I45" s="1"/>
+    </row>
+    <row r="46" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="1"/>
+      <c r="B46" s="1"/>
+      <c r="C46" s="1"/>
+      <c r="D46" s="1"/>
+      <c r="E46" s="1"/>
+      <c r="F46" s="1"/>
+      <c r="H46" s="1"/>
+      <c r="I46" s="1"/>
+    </row>
+    <row r="47" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="1"/>
+      <c r="B47" s="1"/>
+      <c r="C47" s="1"/>
+      <c r="D47" s="1"/>
+      <c r="E47" s="1"/>
+      <c r="F47" s="1"/>
+      <c r="H47" s="1"/>
+      <c r="I47" s="1"/>
+    </row>
+    <row r="48" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="1"/>
+      <c r="B48" s="1"/>
+      <c r="C48" s="1"/>
+      <c r="D48" s="1"/>
+      <c r="E48" s="1"/>
+      <c r="F48" s="1"/>
+      <c r="H48" s="1"/>
+      <c r="I48" s="1"/>
+    </row>
+    <row r="49" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="1"/>
+      <c r="B49" s="1"/>
+      <c r="C49" s="1"/>
+      <c r="D49" s="1"/>
+      <c r="E49" s="1"/>
+      <c r="F49" s="1"/>
+      <c r="H49" s="1"/>
+      <c r="I49" s="1"/>
+    </row>
+    <row r="50" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="1"/>
+      <c r="B50" s="1"/>
+      <c r="C50" s="1"/>
+      <c r="D50" s="1"/>
+      <c r="E50" s="1"/>
+      <c r="F50" s="1"/>
+      <c r="H50" s="1"/>
+      <c r="I50" s="1"/>
+    </row>
+    <row r="51" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="1"/>
+      <c r="B51" s="1"/>
+      <c r="C51" s="1"/>
+      <c r="D51" s="1"/>
+      <c r="E51" s="1"/>
+      <c r="F51" s="1"/>
+      <c r="H51" s="1"/>
+      <c r="I51" s="1"/>
+    </row>
+    <row r="52" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="1"/>
+      <c r="B52" s="1"/>
+      <c r="C52" s="1"/>
+      <c r="D52" s="1"/>
+      <c r="E52" s="1"/>
+      <c r="F52" s="1"/>
+      <c r="H52" s="1"/>
+      <c r="I52" s="1"/>
+    </row>
+    <row r="53" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="1"/>
+      <c r="B53" s="1"/>
+      <c r="C53" s="1"/>
+      <c r="D53" s="1"/>
+      <c r="E53" s="1"/>
+      <c r="F53" s="1"/>
+      <c r="H53" s="1"/>
+      <c r="I53" s="1"/>
+    </row>
+    <row r="54" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="1"/>
+      <c r="B54" s="1"/>
+      <c r="C54" s="1"/>
+      <c r="D54" s="1"/>
+      <c r="E54" s="1"/>
+      <c r="F54" s="1"/>
+      <c r="H54" s="1"/>
+      <c r="I54" s="1"/>
+    </row>
+    <row r="55" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="1"/>
+      <c r="B55" s="1"/>
+      <c r="C55" s="1"/>
+      <c r="D55" s="1"/>
+      <c r="E55" s="1"/>
+      <c r="F55" s="1"/>
+      <c r="H55" s="1"/>
+      <c r="I55" s="1"/>
+    </row>
+    <row r="56" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="1"/>
+      <c r="B56" s="1"/>
+      <c r="C56" s="1"/>
+      <c r="D56" s="1"/>
+      <c r="E56" s="1"/>
+      <c r="F56" s="1"/>
+      <c r="H56" s="1"/>
+      <c r="I56" s="1"/>
+    </row>
+    <row r="57" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="1"/>
+      <c r="B57" s="1"/>
+      <c r="C57" s="1"/>
+      <c r="D57" s="1"/>
+      <c r="E57" s="1"/>
+      <c r="F57" s="1"/>
+      <c r="H57" s="1"/>
+      <c r="I57" s="1"/>
+    </row>
+    <row r="58" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="1"/>
+      <c r="B58" s="1"/>
+      <c r="C58" s="1"/>
+      <c r="D58" s="1"/>
+      <c r="E58" s="1"/>
+      <c r="F58" s="1"/>
+      <c r="H58" s="1"/>
+      <c r="I58" s="1"/>
+    </row>
+    <row r="59" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="1"/>
+      <c r="B59" s="1"/>
+      <c r="C59" s="1"/>
+      <c r="D59" s="1"/>
+      <c r="E59" s="1"/>
+      <c r="F59" s="1"/>
+      <c r="H59" s="1"/>
+      <c r="I59" s="1"/>
+    </row>
+    <row r="60" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="1"/>
+      <c r="B60" s="1"/>
+      <c r="C60" s="1"/>
+      <c r="D60" s="1"/>
+      <c r="E60" s="1"/>
+      <c r="F60" s="1"/>
+      <c r="H60" s="1"/>
+      <c r="I60" s="1"/>
+    </row>
+    <row r="61" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="1"/>
+      <c r="B61" s="1"/>
+      <c r="C61" s="1"/>
+      <c r="D61" s="1"/>
+      <c r="E61" s="1"/>
+      <c r="F61" s="1"/>
+      <c r="H61" s="1"/>
+      <c r="I61" s="1"/>
+    </row>
+    <row r="62" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="1"/>
+      <c r="B62" s="1"/>
+      <c r="C62" s="1"/>
+      <c r="D62" s="1"/>
+      <c r="E62" s="1"/>
+      <c r="F62" s="1"/>
+      <c r="H62" s="1"/>
+      <c r="I62" s="1"/>
+    </row>
+    <row r="63" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="1"/>
+      <c r="B63" s="1"/>
+      <c r="C63" s="1"/>
+      <c r="D63" s="1"/>
+      <c r="E63" s="1"/>
+      <c r="F63" s="1"/>
+      <c r="H63" s="1"/>
+      <c r="I63" s="1"/>
+    </row>
+    <row r="64" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="1"/>
+      <c r="B64" s="1"/>
+      <c r="C64" s="1"/>
+      <c r="D64" s="1"/>
+      <c r="E64" s="1"/>
+      <c r="F64" s="1"/>
+      <c r="H64" s="1"/>
+      <c r="I64" s="1"/>
+    </row>
+    <row r="65" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="1"/>
+      <c r="B65" s="1"/>
+      <c r="C65" s="1"/>
+      <c r="D65" s="1"/>
+      <c r="E65" s="1"/>
+      <c r="F65" s="1"/>
+      <c r="H65" s="1"/>
+      <c r="I65" s="1"/>
+    </row>
+    <row r="66" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="1"/>
+      <c r="B66" s="1"/>
+      <c r="C66" s="1"/>
+      <c r="D66" s="1"/>
+      <c r="E66" s="1"/>
+      <c r="F66" s="1"/>
+      <c r="H66" s="1"/>
+      <c r="I66" s="1"/>
+    </row>
+    <row r="67" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A67" s="1"/>
+      <c r="B67" s="1"/>
+      <c r="C67" s="1"/>
+      <c r="D67" s="1"/>
+      <c r="E67" s="1"/>
+      <c r="F67" s="1"/>
+      <c r="H67" s="1"/>
+      <c r="I67" s="1"/>
+    </row>
+    <row r="68" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A68" s="1"/>
+      <c r="B68" s="1"/>
+      <c r="C68" s="1"/>
+      <c r="D68" s="1"/>
+      <c r="E68" s="1"/>
+      <c r="F68" s="1"/>
+      <c r="H68" s="1"/>
+      <c r="I68" s="1"/>
+    </row>
+    <row r="69" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="1"/>
+      <c r="B69" s="1"/>
+      <c r="C69" s="1"/>
+      <c r="D69" s="1"/>
+      <c r="E69" s="1"/>
+      <c r="F69" s="1"/>
+      <c r="H69" s="1"/>
+      <c r="I69" s="1"/>
+    </row>
+    <row r="70" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="1"/>
+      <c r="B70" s="1"/>
+      <c r="C70" s="1"/>
+      <c r="D70" s="1"/>
+      <c r="E70" s="1"/>
+      <c r="F70" s="1"/>
+      <c r="H70" s="1"/>
+      <c r="I70" s="1"/>
+    </row>
+    <row r="71" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="1"/>
+      <c r="B71" s="1"/>
+      <c r="C71" s="1"/>
+      <c r="D71" s="1"/>
+      <c r="E71" s="1"/>
+      <c r="F71" s="1"/>
+      <c r="H71" s="1"/>
+      <c r="I71" s="1"/>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A72" s="1"/>
+      <c r="B72" s="1"/>
+      <c r="C72" s="1"/>
+      <c r="D72" s="1"/>
+      <c r="E72" s="1"/>
+      <c r="F72" s="1"/>
+      <c r="H72" s="1"/>
+      <c r="I72" s="1"/>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A73" s="1"/>
+      <c r="B73" s="1"/>
+      <c r="C73" s="1"/>
+      <c r="D73" s="1"/>
+      <c r="E73" s="1"/>
+      <c r="F73" s="1"/>
+      <c r="H73" s="1"/>
+      <c r="I73" s="1"/>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A74" s="1"/>
+      <c r="B74" s="1"/>
+      <c r="C74" s="1"/>
+      <c r="D74" s="1"/>
+      <c r="E74" s="1"/>
+      <c r="F74" s="1"/>
+      <c r="H74" s="1"/>
+      <c r="I74" s="1"/>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A75" s="1"/>
+      <c r="B75" s="1"/>
+      <c r="C75" s="1"/>
+      <c r="D75" s="1"/>
+      <c r="E75" s="1"/>
+      <c r="F75" s="1"/>
+      <c r="H75" s="1"/>
+      <c r="I75" s="1"/>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A76" s="1"/>
+      <c r="B76" s="1"/>
+      <c r="C76" s="1"/>
+      <c r="D76" s="1"/>
+      <c r="E76" s="1"/>
+      <c r="F76" s="1"/>
+      <c r="H76" s="1"/>
+      <c r="I76" s="1"/>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A77" s="1"/>
+      <c r="B77" s="1"/>
+      <c r="C77" s="1"/>
+      <c r="D77" s="1"/>
+      <c r="E77" s="1"/>
+      <c r="F77" s="1"/>
+      <c r="H77" s="1"/>
+      <c r="I77" s="1"/>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A78" s="1"/>
+      <c r="B78" s="1"/>
+      <c r="C78" s="1"/>
+      <c r="D78" s="1"/>
+      <c r="E78" s="1"/>
+      <c r="F78" s="1"/>
+      <c r="H78" s="1"/>
+      <c r="I78" s="1"/>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A79" s="1"/>
+      <c r="B79" s="1"/>
+      <c r="C79" s="1"/>
+      <c r="D79" s="1"/>
+      <c r="E79" s="1"/>
+      <c r="F79" s="1"/>
+      <c r="H79" s="1"/>
+      <c r="I79" s="1"/>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A80" s="1"/>
+      <c r="B80" s="1"/>
+      <c r="C80" s="1"/>
+      <c r="D80" s="1"/>
+      <c r="E80" s="1"/>
+      <c r="F80" s="1"/>
+      <c r="H80" s="1"/>
+      <c r="I80" s="1"/>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A81" s="1"/>
+      <c r="B81" s="1"/>
+      <c r="C81" s="1"/>
+      <c r="D81" s="1"/>
+      <c r="E81" s="1"/>
+      <c r="F81" s="1"/>
+      <c r="H81" s="1"/>
+      <c r="I81" s="1"/>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A82" s="1"/>
+      <c r="B82" s="1"/>
+      <c r="C82" s="1"/>
+      <c r="D82" s="1"/>
+      <c r="E82" s="1"/>
+      <c r="F82" s="1"/>
+      <c r="H82" s="1"/>
+      <c r="I82" s="1"/>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A83" s="1"/>
+      <c r="B83" s="1"/>
+      <c r="C83" s="1"/>
+      <c r="D83" s="1"/>
+      <c r="E83" s="1"/>
+      <c r="F83" s="1"/>
+      <c r="H83" s="1"/>
+      <c r="I83" s="1"/>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A84" s="1"/>
+      <c r="B84" s="1"/>
+      <c r="C84" s="1"/>
+      <c r="D84" s="1"/>
+      <c r="E84" s="1"/>
+      <c r="F84" s="1"/>
+      <c r="H84" s="1"/>
+      <c r="I84" s="1"/>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A85" s="1"/>
+      <c r="B85" s="1"/>
+      <c r="C85" s="1"/>
+      <c r="D85" s="1"/>
+      <c r="E85" s="1"/>
+      <c r="F85" s="1"/>
+      <c r="H85" s="1"/>
+      <c r="I85" s="1"/>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A86" s="1"/>
+      <c r="B86" s="1"/>
+      <c r="C86" s="1"/>
+      <c r="D86" s="1"/>
+      <c r="E86" s="1"/>
+      <c r="F86" s="1"/>
+      <c r="H86" s="1"/>
+      <c r="I86" s="1"/>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A87" s="1"/>
+      <c r="B87" s="1"/>
+      <c r="C87" s="1"/>
+      <c r="D87" s="1"/>
+      <c r="E87" s="1"/>
+      <c r="F87" s="1"/>
+      <c r="H87" s="1"/>
+      <c r="I87" s="1"/>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A88" s="1"/>
+      <c r="B88" s="1"/>
+      <c r="C88" s="1"/>
+      <c r="D88" s="1"/>
+      <c r="E88" s="1"/>
+      <c r="F88" s="1"/>
+      <c r="H88" s="1"/>
+      <c r="I88" s="1"/>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A89" s="1"/>
+      <c r="B89" s="1"/>
+      <c r="C89" s="1"/>
+      <c r="D89" s="1"/>
+      <c r="E89" s="1"/>
+      <c r="F89" s="1"/>
+      <c r="H89" s="1"/>
+      <c r="I89" s="1"/>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A90" s="1"/>
+      <c r="B90" s="1"/>
+      <c r="C90" s="1"/>
+      <c r="D90" s="1"/>
+      <c r="E90" s="1"/>
+      <c r="F90" s="1"/>
+      <c r="H90" s="1"/>
+      <c r="I90" s="1"/>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A91" s="1"/>
+      <c r="B91" s="1"/>
+      <c r="C91" s="1"/>
+      <c r="D91" s="1"/>
+      <c r="E91" s="1"/>
+      <c r="F91" s="1"/>
+      <c r="H91" s="1"/>
+      <c r="I91" s="1"/>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A92" s="1"/>
+      <c r="B92" s="1"/>
+      <c r="C92" s="1"/>
+      <c r="D92" s="1"/>
+      <c r="E92" s="1"/>
+      <c r="F92" s="1"/>
+      <c r="H92" s="1"/>
+      <c r="I92" s="1"/>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A93" s="1"/>
+      <c r="B93" s="1"/>
+      <c r="C93" s="1"/>
+      <c r="D93" s="1"/>
+      <c r="E93" s="1"/>
+      <c r="F93" s="1"/>
+      <c r="H93" s="1"/>
+      <c r="I93" s="1"/>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A94" s="1"/>
+      <c r="B94" s="1"/>
+      <c r="C94" s="1"/>
+      <c r="D94" s="1"/>
+      <c r="E94" s="1"/>
+      <c r="F94" s="1"/>
+      <c r="H94" s="1"/>
+      <c r="I94" s="1"/>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A95" s="1"/>
+      <c r="B95" s="1"/>
+      <c r="C95" s="1"/>
+      <c r="D95" s="1"/>
+      <c r="E95" s="1"/>
+      <c r="F95" s="1"/>
+      <c r="H95" s="1"/>
+      <c r="I95" s="1"/>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A96" s="1"/>
+      <c r="B96" s="1"/>
+      <c r="C96" s="1"/>
+      <c r="D96" s="1"/>
+      <c r="E96" s="1"/>
+      <c r="F96" s="1"/>
+      <c r="H96" s="1"/>
+      <c r="I96" s="1"/>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A97" s="1"/>
+      <c r="B97" s="1"/>
+      <c r="C97" s="1"/>
+      <c r="D97" s="1"/>
+      <c r="E97" s="1"/>
+      <c r="F97" s="1"/>
+      <c r="H97" s="1"/>
+      <c r="I97" s="1"/>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A98" s="1"/>
+      <c r="B98" s="1"/>
+      <c r="C98" s="1"/>
+      <c r="D98" s="1"/>
+      <c r="E98" s="1"/>
+      <c r="F98" s="1"/>
+      <c r="H98" s="1"/>
+      <c r="I98" s="1"/>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A99" s="1"/>
+      <c r="B99" s="1"/>
+      <c r="C99" s="1"/>
+      <c r="D99" s="1"/>
+      <c r="E99" s="1"/>
+      <c r="F99" s="1"/>
+      <c r="H99" s="1"/>
+      <c r="I99" s="1"/>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A100" s="1"/>
+      <c r="B100" s="1"/>
+      <c r="C100" s="1"/>
+      <c r="D100" s="1"/>
+      <c r="E100" s="1"/>
+      <c r="F100" s="1"/>
+      <c r="H100" s="1"/>
+      <c r="I100" s="1"/>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A101" s="1"/>
+      <c r="B101" s="1"/>
+      <c r="C101" s="1"/>
+      <c r="D101" s="1"/>
+      <c r="E101" s="1"/>
+      <c r="F101" s="1"/>
+      <c r="H101" s="1"/>
+      <c r="I101" s="1"/>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A102" s="1"/>
+      <c r="B102" s="1"/>
+      <c r="C102" s="1"/>
+      <c r="D102" s="1"/>
+      <c r="E102" s="1"/>
+      <c r="F102" s="1"/>
+      <c r="H102" s="1"/>
+      <c r="I102" s="1"/>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A103" s="1"/>
+      <c r="B103" s="1"/>
+      <c r="C103" s="1"/>
+      <c r="D103" s="1"/>
+      <c r="E103" s="1"/>
+      <c r="F103" s="1"/>
+      <c r="H103" s="1"/>
+      <c r="I103" s="1"/>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A104" s="1"/>
+      <c r="B104" s="1"/>
+      <c r="C104" s="1"/>
+      <c r="D104" s="1"/>
+      <c r="E104" s="1"/>
+      <c r="F104" s="1"/>
+      <c r="H104" s="1"/>
+      <c r="I104" s="1"/>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A105" s="1"/>
+      <c r="B105" s="1"/>
+      <c r="C105" s="1"/>
+      <c r="D105" s="1"/>
+      <c r="E105" s="1"/>
+      <c r="F105" s="1"/>
+      <c r="H105" s="1"/>
+      <c r="I105" s="1"/>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A106" s="1"/>
+      <c r="B106" s="1"/>
+      <c r="C106" s="1"/>
+      <c r="D106" s="1"/>
+      <c r="E106" s="1"/>
+      <c r="F106" s="1"/>
+      <c r="H106" s="1"/>
+      <c r="I106" s="1"/>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A107" s="1"/>
+      <c r="B107" s="1"/>
+      <c r="C107" s="1"/>
+      <c r="D107" s="1"/>
+      <c r="E107" s="1"/>
+      <c r="F107" s="1"/>
+      <c r="H107" s="1"/>
+      <c r="I107" s="1"/>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A108" s="1"/>
+      <c r="B108" s="1"/>
+      <c r="C108" s="1"/>
+      <c r="D108" s="1"/>
+      <c r="E108" s="1"/>
+      <c r="F108" s="1"/>
+      <c r="H108" s="1"/>
+      <c r="I108" s="1"/>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A109" s="1"/>
+      <c r="B109" s="1"/>
+      <c r="C109" s="1"/>
+      <c r="D109" s="1"/>
+      <c r="E109" s="1"/>
+      <c r="F109" s="1"/>
+      <c r="H109" s="1"/>
+      <c r="I109" s="1"/>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A110" s="1"/>
+      <c r="B110" s="1"/>
+      <c r="C110" s="1"/>
+      <c r="D110" s="1"/>
+      <c r="E110" s="1"/>
+      <c r="F110" s="1"/>
+      <c r="H110" s="1"/>
+      <c r="I110" s="1"/>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A111" s="1"/>
+      <c r="B111" s="1"/>
+      <c r="C111" s="1"/>
+      <c r="D111" s="1"/>
+      <c r="E111" s="1"/>
+      <c r="F111" s="1"/>
+      <c r="H111" s="1"/>
+      <c r="I111" s="1"/>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A112" s="1"/>
+      <c r="B112" s="1"/>
+      <c r="C112" s="1"/>
+      <c r="D112" s="1"/>
+      <c r="E112" s="1"/>
+      <c r="F112" s="1"/>
+      <c r="H112" s="1"/>
+      <c r="I112" s="1"/>
+    </row>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A113" s="1"/>
+      <c r="B113" s="1"/>
+      <c r="C113" s="1"/>
+      <c r="D113" s="1"/>
+      <c r="E113" s="1"/>
+      <c r="F113" s="1"/>
+      <c r="H113" s="1"/>
+      <c r="I113" s="1"/>
+    </row>
+    <row r="114" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A114" s="1"/>
+      <c r="B114" s="1"/>
+      <c r="C114" s="1"/>
+      <c r="D114" s="1"/>
+      <c r="E114" s="1"/>
+      <c r="F114" s="1"/>
+      <c r="H114" s="1"/>
+      <c r="I114" s="1"/>
+    </row>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A115" s="1"/>
+      <c r="B115" s="1"/>
+      <c r="C115" s="1"/>
+      <c r="D115" s="1"/>
+      <c r="E115" s="1"/>
+      <c r="F115" s="1"/>
+      <c r="H115" s="1"/>
+      <c r="I115" s="1"/>
+    </row>
+    <row r="116" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A116" s="1"/>
+      <c r="B116" s="1"/>
+      <c r="C116" s="1"/>
+      <c r="D116" s="1"/>
+      <c r="E116" s="1"/>
+      <c r="F116" s="1"/>
+      <c r="H116" s="1"/>
+      <c r="I116" s="1"/>
+    </row>
+    <row r="117" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A117" s="1"/>
+      <c r="B117" s="1"/>
+      <c r="C117" s="1"/>
+      <c r="D117" s="1"/>
+      <c r="E117" s="1"/>
+      <c r="F117" s="1"/>
+      <c r="H117" s="1"/>
+      <c r="I117" s="1"/>
+    </row>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A118" s="1"/>
+      <c r="B118" s="1"/>
+      <c r="C118" s="1"/>
+      <c r="D118" s="1"/>
+      <c r="E118" s="1"/>
+      <c r="F118" s="1"/>
+      <c r="H118" s="1"/>
+      <c r="I118" s="1"/>
+    </row>
+    <row r="119" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A119" s="1"/>
+      <c r="B119" s="1"/>
+      <c r="C119" s="1"/>
+      <c r="D119" s="1"/>
+      <c r="E119" s="1"/>
+      <c r="F119" s="1"/>
+      <c r="H119" s="1"/>
+      <c r="I119" s="1"/>
+    </row>
+    <row r="120" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A120" s="1"/>
+      <c r="B120" s="1"/>
+      <c r="C120" s="1"/>
+      <c r="D120" s="1"/>
+      <c r="E120" s="1"/>
+      <c r="F120" s="1"/>
+      <c r="H120" s="1"/>
+      <c r="I120" s="1"/>
+    </row>
+    <row r="121" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A121" s="1"/>
+      <c r="B121" s="1"/>
+      <c r="C121" s="1"/>
+      <c r="D121" s="1"/>
+      <c r="E121" s="1"/>
+      <c r="F121" s="1"/>
+      <c r="H121" s="1"/>
+      <c r="I121" s="1"/>
+    </row>
+    <row r="122" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A122" s="1"/>
+      <c r="B122" s="1"/>
+      <c r="C122" s="1"/>
+      <c r="D122" s="1"/>
+      <c r="E122" s="1"/>
+      <c r="F122" s="1"/>
+      <c r="H122" s="1"/>
+      <c r="I122" s="1"/>
+    </row>
+    <row r="123" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A123" s="1"/>
+      <c r="B123" s="1"/>
+      <c r="C123" s="1"/>
+      <c r="D123" s="1"/>
+      <c r="E123" s="1"/>
+      <c r="F123" s="1"/>
+      <c r="H123" s="1"/>
+      <c r="I123" s="1"/>
+    </row>
+    <row r="124" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A124" s="1"/>
+      <c r="B124" s="1"/>
+      <c r="C124" s="1"/>
+      <c r="D124" s="1"/>
+      <c r="E124" s="1"/>
+      <c r="F124" s="1"/>
+      <c r="H124" s="1"/>
+      <c r="I124" s="1"/>
+    </row>
+    <row r="125" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A125" s="1"/>
+      <c r="B125" s="1"/>
+      <c r="C125" s="1"/>
+      <c r="D125" s="1"/>
+      <c r="E125" s="1"/>
+      <c r="F125" s="1"/>
+      <c r="H125" s="1"/>
+      <c r="I125" s="1"/>
+    </row>
+    <row r="126" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A126" s="1"/>
+      <c r="B126" s="1"/>
+      <c r="C126" s="1"/>
+      <c r="D126" s="1"/>
+      <c r="E126" s="1"/>
+      <c r="F126" s="1"/>
+      <c r="H126" s="1"/>
+      <c r="I126" s="1"/>
+    </row>
+    <row r="127" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A127" s="1"/>
+      <c r="B127" s="1"/>
+      <c r="C127" s="1"/>
+      <c r="D127" s="1"/>
+      <c r="E127" s="1"/>
+      <c r="F127" s="1"/>
+      <c r="H127" s="1"/>
+      <c r="I127" s="1"/>
+    </row>
+    <row r="128" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A128" s="1"/>
+      <c r="B128" s="1"/>
+      <c r="C128" s="1"/>
+      <c r="D128" s="1"/>
+      <c r="E128" s="1"/>
+      <c r="F128" s="1"/>
+      <c r="H128" s="1"/>
+      <c r="I128" s="1"/>
+    </row>
+    <row r="129" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A129" s="1"/>
+      <c r="B129" s="1"/>
+      <c r="C129" s="1"/>
+      <c r="D129" s="1"/>
+      <c r="E129" s="1"/>
+      <c r="F129" s="1"/>
+      <c r="H129" s="1"/>
+      <c r="I129" s="1"/>
+    </row>
+    <row r="130" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H130" s="1"/>
+      <c r="I130" s="1"/>
+    </row>
+    <row r="131" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H131" s="1"/>
+      <c r="I131" s="1"/>
+    </row>
+    <row r="132" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H132" s="1"/>
+      <c r="I132" s="1"/>
+    </row>
+    <row r="133" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H133" s="1"/>
+      <c r="I133" s="1"/>
+    </row>
+    <row r="134" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H134" s="1"/>
+      <c r="I134" s="1"/>
+    </row>
+    <row r="135" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H135" s="1"/>
+      <c r="I135" s="1"/>
+    </row>
+    <row r="136" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H136" s="1"/>
+      <c r="I136" s="1"/>
+    </row>
+    <row r="137" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H137" s="1"/>
+      <c r="I137" s="1"/>
+    </row>
+    <row r="138" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H138" s="1"/>
+      <c r="I138" s="1"/>
+    </row>
+    <row r="139" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H139" s="1"/>
+      <c r="I139" s="1"/>
+    </row>
+    <row r="140" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H140" s="1"/>
+      <c r="I140" s="1"/>
+    </row>
   </sheetData>
-  <mergeCells count="36">
+  <mergeCells count="43">
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A33:C33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B35:C35"/>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="A5:E5"/>
     <mergeCell ref="B6:C6"/>
@@ -1774,30 +3221,187 @@
     <mergeCell ref="D9:E9"/>
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="D10:E10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:E22"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="48.1640625" customWidth="1"/>
+    <col min="2" max="2" width="110.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="65" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="58" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" s="59"/>
+    </row>
+    <row r="2" spans="1:2" ht="24" x14ac:dyDescent="0.2">
+      <c r="A2" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" s="17" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="216" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="B3" s="17" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="216" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="B4" s="17" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="216" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="18"/>
+      <c r="B5" s="19"/>
+    </row>
+    <row r="6" spans="1:2" ht="216" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="18"/>
+      <c r="B6" s="19"/>
+    </row>
+    <row r="7" spans="1:2" ht="216" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="18"/>
+      <c r="B7" s="19"/>
+    </row>
+    <row r="8" spans="1:2" ht="216" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="18"/>
+      <c r="B8" s="17"/>
+    </row>
+    <row r="9" spans="1:2" ht="216" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="18"/>
+      <c r="B9" s="17"/>
+    </row>
+    <row r="10" spans="1:2" ht="216" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="19"/>
+      <c r="B10" s="19"/>
+    </row>
+    <row r="11" spans="1:2" ht="216" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="16"/>
+      <c r="B11" s="16"/>
+    </row>
+    <row r="12" spans="1:2" ht="216" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="16"/>
+      <c r="B12" s="16"/>
+    </row>
+    <row r="13" spans="1:2" ht="216" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="16"/>
+      <c r="B13" s="16"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:B1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:F2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="36" customWidth="1"/>
+    <col min="3" max="3" width="35.5" customWidth="1"/>
+    <col min="4" max="4" width="22.1640625" customWidth="1"/>
+    <col min="6" max="6" width="72.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="67" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="58" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="59"/>
+    </row>
+    <row r="2" spans="1:6" ht="288" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="60" t="s">
+        <v>49</v>
+      </c>
+      <c r="B2" s="61"/>
+      <c r="C2" s="42" t="s">
+        <v>51</v>
+      </c>
+      <c r="D2" s="64"/>
+      <c r="E2" s="64"/>
+      <c r="F2" s="32"/>
+    </row>
+    <row r="3" spans="1:6" ht="288" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="60" t="s">
+        <v>48</v>
+      </c>
+      <c r="B3" s="61"/>
+      <c r="C3" s="42" t="s">
+        <v>50</v>
+      </c>
+      <c r="D3" s="64"/>
+      <c r="E3" s="64"/>
+      <c r="F3" s="32"/>
+    </row>
+    <row r="4" spans="1:6" ht="288" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="60"/>
+      <c r="B4" s="61"/>
+      <c r="C4" s="62"/>
+      <c r="D4" s="62"/>
+      <c r="E4" s="62"/>
+      <c r="F4" s="61"/>
+    </row>
+    <row r="5" spans="1:6" ht="288" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="60"/>
+      <c r="B5" s="61"/>
+      <c r="C5" s="62"/>
+      <c r="D5" s="62"/>
+      <c r="E5" s="62"/>
+      <c r="F5" s="61"/>
+    </row>
+    <row r="6" spans="1:6" ht="288" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="60"/>
+      <c r="B6" s="61"/>
+      <c r="C6" s="62"/>
+      <c r="D6" s="62"/>
+      <c r="E6" s="62"/>
+      <c r="F6" s="61"/>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:F6"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:F2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:F3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:F4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/doc/服务器协议.xlsx
+++ b/doc/服务器协议.xlsx
@@ -9,14 +9,15 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="820" yWindow="460" windowWidth="27980" windowHeight="17540" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17460" tabRatio="500" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="版本0.1" sheetId="1" r:id="rId1"/>
     <sheet name="版本0.2" sheetId="2" r:id="rId2"/>
     <sheet name="版本0.3" sheetId="3" r:id="rId3"/>
-    <sheet name="配置文件协议说明" sheetId="4" r:id="rId4"/>
-    <sheet name="配置服务器协议说明" sheetId="5" r:id="rId5"/>
+    <sheet name="主从模式架构版本0.1 " sheetId="6" r:id="rId4"/>
+    <sheet name="配置文件协议说明" sheetId="4" r:id="rId5"/>
+    <sheet name="配置服务器协议说明" sheetId="5" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">版本0.1!$A$1:$F$22</definedName>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="100">
   <si>
     <t>前4Bit协议</t>
   </si>
@@ -205,23 +206,6 @@
     <t>1)Minor通知Major自己的信息</t>
   </si>
   <si>
-    <t>{
-msg_type:update_identification,(为标志协议消息)
-identity:minor_config,(标识服务种类)，
-client-id:(minor的客户端id，必填，必须和协议1中id一样),
-micro_server_num:1,(微服务的数量，可选)
-}</t>
-  </si>
-  <si>
-    <t>{
-msg_type:identification,(为标志协议消息)
-identity:minor_config,(标识服务种类)
-client-id:(minor的客户端id，后面不能修改),
-micro_server_type:(微服务的种类，协议中server_type的一种，为数字，必填),
-micro_server_num:1,(微服务的数量，必填)
-}</t>
-  </si>
-  <si>
     <r>
       <t>Tcp协议分为两个部分，一部分为数据头部，一部分为数据内容。数据头部共13个字节，数据内容长度最多64K。其中头部分五个部分，第一个部分为一个字节，固定为^；第二部分为四个字节，为这条数据返回客户端时的客户端ID；第三部分为一个字节，表示报文的版本号；第四部分为一个字节，表示类型，见协议类型解释；第五部分为2个字节，为数据长度。</t>
     </r>
@@ -306,12 +290,105 @@
   <si>
     <t>0x60000000-0x6FFFFFFF</t>
   </si>
+  <si>
+    <t>主从模式的集群服务器构架示意图如下图所示，整个服务中存在一个Master服务，主要功能是监控整个服务的运行情况，负责管理协调不同的微服务（Micro Server）；Slave服务是具体监控某一种微服务；Micro Server是具体处理某一事务的服务。以下是各个服务的具体功能。</t>
+  </si>
+  <si>
+    <t>Master 服务</t>
+  </si>
+  <si>
+    <t>1.管理多个Slave服务，监测Slave是否断开</t>
+  </si>
+  <si>
+    <t>2.管理并通知不同微服务的上下关系</t>
+  </si>
+  <si>
+    <t>Slave 服务</t>
+  </si>
+  <si>
+    <t>1.管理某一种微服务，微服务可能是多个</t>
+  </si>
+  <si>
+    <t>2.告诉Slave，自己的微服务的类型和地址</t>
+  </si>
+  <si>
+    <t>3.动态添加或关闭微服务</t>
+  </si>
+  <si>
+    <t>4.将微服务的运行状态通知给Master</t>
+  </si>
+  <si>
+    <t>Micro Server</t>
+  </si>
+  <si>
+    <t>1.处理某一种具体的事务</t>
+  </si>
+  <si>
+    <t>2.将处理能力通知给Slave</t>
+  </si>
+  <si>
+    <t>3.能够显示整个系统的性能</t>
+  </si>
+  <si>
+    <t>1.显示整个系统的微服务数量</t>
+  </si>
+  <si>
+    <t>2.显示整个系统中某一种微服务处理能力和操作系统的CPU、内存状态</t>
+  </si>
+  <si>
+    <t>3.手动关闭或开启一种微服务</t>
+  </si>
+  <si>
+    <t>性能监控UI</t>
+  </si>
+  <si>
+    <t>4.将监控数据可发送给性能监控UI</t>
+  </si>
+  <si>
+    <t>目标为路由服务器</t>
+  </si>
+  <si>
+    <t>{
+msg_type:identification,(为标志协议消息)
+identity:minor_config,(标识服务种类)
+client_id:(minor的客户端id，后面不能修改),
+micro_server_type:(微服务的种类，协议中server_type的一种，为数字，必填)
+}</t>
+  </si>
+  <si>
+    <t>{
+msg_type:update_identification,(为标志协议消息)
+identity:minor_config,(标识服务种类)，
+client_id:(minor的客户端id，必填，必须和协议1中id一样),
+micro_server_num:1,(微服务的数量)
+micro_server_address:["127.0.0.1:9005"...],(所有微服务器的地址，每次更新都全部更新，没有增量)
+}</t>
+  </si>
+  <si>
+    <t>3)micro server通知minor自己信息</t>
+  </si>
+  <si>
+    <t>{
+msg_type:identification,(为标志协议消息)
+identity:micro_server,(标志为微服务器)
+client_id:id
+micro_server_type:
+}</t>
+  </si>
+  <si>
+    <t>Connection-Server配置文件</t>
+  </si>
+  <si>
+    <t>port:(监听端口号)
+route_address:(route server的地址)
+auth_address:(auth server的地址)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -389,6 +466,18 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri (Body)"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="8">
     <fill>
@@ -434,7 +523,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -503,6 +592,37 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -513,7 +633,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -591,9 +711,48 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -604,39 +763,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
@@ -645,15 +771,30 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -666,23 +807,32 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -723,6 +873,49 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>254000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>6375400</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>4076700</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="86" name="Picture 85"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3175000" y="254000"/>
+          <a:ext cx="6375400" cy="3822700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1003,14 +1196,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="44" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
     </row>
     <row r="2" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
@@ -1019,14 +1212,14 @@
       <c r="B2" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="38" t="s">
+      <c r="C2" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="D2" s="39"/>
-      <c r="E2" s="40" t="s">
+      <c r="D2" s="38"/>
+      <c r="E2" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="F2" s="41"/>
+      <c r="F2" s="40"/>
     </row>
     <row r="3" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3"/>
@@ -1045,26 +1238,26 @@
       <c r="F4" s="3"/>
     </row>
     <row r="5" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="28" t="s">
+      <c r="A5" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="29"/>
-      <c r="C5" s="29"/>
-      <c r="D5" s="29"/>
-      <c r="E5" s="30"/>
+      <c r="B5" s="42"/>
+      <c r="C5" s="42"/>
+      <c r="D5" s="42"/>
+      <c r="E5" s="43"/>
     </row>
     <row r="6" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="36" t="s">
+      <c r="B6" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="36"/>
-      <c r="D6" s="36" t="s">
+      <c r="C6" s="34"/>
+      <c r="D6" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="36"/>
+      <c r="E6" s="34"/>
     </row>
     <row r="7" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
@@ -1074,10 +1267,10 @@
         <v>7</v>
       </c>
       <c r="C7" s="32"/>
-      <c r="D7" s="37" t="s">
+      <c r="D7" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="E7" s="37"/>
+      <c r="E7" s="35"/>
     </row>
     <row r="8" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
@@ -1087,166 +1280,166 @@
         <v>8</v>
       </c>
       <c r="C8" s="32"/>
-      <c r="D8" s="27" t="s">
+      <c r="D8" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="E8" s="27"/>
+      <c r="E8" s="36"/>
     </row>
     <row r="9" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>2</v>
       </c>
-      <c r="B9" s="33" t="s">
+      <c r="B9" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="34"/>
-      <c r="D9" s="27" t="s">
+      <c r="C9" s="30"/>
+      <c r="D9" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="E9" s="27"/>
+      <c r="E9" s="36"/>
     </row>
     <row r="10" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>3</v>
       </c>
-      <c r="B10" s="33" t="s">
+      <c r="B10" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="34"/>
-      <c r="D10" s="27" t="s">
+      <c r="C10" s="30"/>
+      <c r="D10" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="E10" s="27"/>
+      <c r="E10" s="36"/>
     </row>
     <row r="11" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>4</v>
       </c>
-      <c r="B11" s="27" t="s">
-        <v>10</v>
-      </c>
-      <c r="C11" s="27"/>
-      <c r="D11" s="27" t="s">
+      <c r="B11" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="36"/>
+      <c r="D11" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="E11" s="27"/>
+      <c r="E11" s="36"/>
     </row>
     <row r="12" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>5</v>
       </c>
-      <c r="B12" s="27" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12" s="27"/>
-      <c r="D12" s="27" t="s">
+      <c r="B12" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="36"/>
+      <c r="D12" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="E12" s="27"/>
+      <c r="E12" s="36"/>
     </row>
     <row r="13" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>6</v>
       </c>
-      <c r="B13" s="27" t="s">
-        <v>10</v>
-      </c>
-      <c r="C13" s="27"/>
-      <c r="D13" s="27" t="s">
+      <c r="B13" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="36"/>
+      <c r="D13" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="E13" s="27"/>
+      <c r="E13" s="36"/>
     </row>
     <row r="14" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>7</v>
       </c>
-      <c r="B14" s="27" t="s">
-        <v>10</v>
-      </c>
-      <c r="C14" s="27"/>
-      <c r="D14" s="27" t="s">
-        <v>10</v>
-      </c>
-      <c r="E14" s="27"/>
+      <c r="B14" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" s="36"/>
+      <c r="D14" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="E14" s="36"/>
     </row>
     <row r="15" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <v>8</v>
       </c>
-      <c r="B15" s="27" t="s">
-        <v>10</v>
-      </c>
-      <c r="C15" s="27"/>
-      <c r="D15" s="27" t="s">
-        <v>10</v>
-      </c>
-      <c r="E15" s="27"/>
+      <c r="B15" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" s="36"/>
+      <c r="D15" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="E15" s="36"/>
     </row>
     <row r="16" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <v>9</v>
       </c>
-      <c r="B16" s="27" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16" s="27"/>
-      <c r="D16" s="27" t="s">
-        <v>10</v>
-      </c>
-      <c r="E16" s="27"/>
+      <c r="B16" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="36"/>
+      <c r="D16" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="E16" s="36"/>
     </row>
     <row r="17" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B17" s="27" t="s">
-        <v>10</v>
-      </c>
-      <c r="C17" s="27"/>
-      <c r="D17" s="27" t="s">
-        <v>10</v>
-      </c>
-      <c r="E17" s="27"/>
+      <c r="B17" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17" s="36"/>
+      <c r="D17" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" s="36"/>
     </row>
     <row r="18" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B18" s="27" t="s">
-        <v>10</v>
-      </c>
-      <c r="C18" s="27"/>
-      <c r="D18" s="27" t="s">
-        <v>10</v>
-      </c>
-      <c r="E18" s="27"/>
+      <c r="B18" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="C18" s="36"/>
+      <c r="D18" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="E18" s="36"/>
     </row>
     <row r="19" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B19" s="27" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="27"/>
-      <c r="D19" s="27" t="s">
-        <v>10</v>
-      </c>
-      <c r="E19" s="27"/>
+      <c r="B19" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19" s="36"/>
+      <c r="D19" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="E19" s="36"/>
     </row>
     <row r="20" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B20" s="27" t="s">
-        <v>10</v>
-      </c>
-      <c r="C20" s="27"/>
-      <c r="D20" s="27" t="s">
-        <v>10</v>
-      </c>
-      <c r="E20" s="27"/>
+      <c r="B20" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20" s="36"/>
+      <c r="D20" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="E20" s="36"/>
     </row>
     <row r="21" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
@@ -1256,23 +1449,23 @@
         <v>11</v>
       </c>
       <c r="C21" s="32"/>
-      <c r="D21" s="27" t="s">
-        <v>10</v>
-      </c>
-      <c r="E21" s="27"/>
+      <c r="D21" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="E21" s="36"/>
     </row>
     <row r="22" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B22" s="33" t="s">
+      <c r="B22" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="C22" s="34"/>
-      <c r="D22" s="27" t="s">
-        <v>10</v>
-      </c>
-      <c r="E22" s="27"/>
+      <c r="C22" s="30"/>
+      <c r="D22" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="E22" s="36"/>
     </row>
     <row r="23" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="1"/>
@@ -1282,6 +1475,28 @@
     </row>
   </sheetData>
   <mergeCells count="38">
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="A5:E5"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="D13:E13"/>
     <mergeCell ref="B9:C9"/>
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="B21:C21"/>
@@ -1298,28 +1513,6 @@
     <mergeCell ref="B16:C16"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="E2:F2"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="A5:E5"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="D19:E19"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1345,14 +1538,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="93" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="44" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="44"/>
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="46"/>
       <c r="G1" s="12"/>
     </row>
     <row r="2" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -1394,27 +1587,27 @@
       <c r="G4" s="3"/>
     </row>
     <row r="5" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="28" t="s">
+      <c r="A5" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="29"/>
-      <c r="C5" s="29"/>
-      <c r="D5" s="29"/>
-      <c r="E5" s="30"/>
+      <c r="B5" s="42"/>
+      <c r="C5" s="42"/>
+      <c r="D5" s="42"/>
+      <c r="E5" s="43"/>
       <c r="F5" s="8"/>
     </row>
     <row r="6" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="36" t="s">
+      <c r="B6" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="C6" s="36"/>
-      <c r="D6" s="36" t="s">
+      <c r="C6" s="34"/>
+      <c r="D6" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="E6" s="36"/>
+      <c r="E6" s="34"/>
       <c r="F6" s="9"/>
     </row>
     <row r="7" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -1425,10 +1618,10 @@
         <v>7</v>
       </c>
       <c r="C7" s="32"/>
-      <c r="D7" s="37" t="s">
+      <c r="D7" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="E7" s="37"/>
+      <c r="E7" s="35"/>
       <c r="F7" s="10"/>
     </row>
     <row r="8" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -1439,178 +1632,178 @@
         <v>8</v>
       </c>
       <c r="C8" s="32"/>
-      <c r="D8" s="27" t="s">
+      <c r="D8" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="E8" s="27"/>
+      <c r="E8" s="36"/>
       <c r="F8" s="11"/>
     </row>
     <row r="9" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="7">
         <v>2</v>
       </c>
-      <c r="B9" s="33" t="s">
+      <c r="B9" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="34"/>
-      <c r="D9" s="27" t="s">
+      <c r="C9" s="30"/>
+      <c r="D9" s="36" t="s">
         <v>35</v>
       </c>
-      <c r="E9" s="27"/>
+      <c r="E9" s="36"/>
       <c r="F9" s="11"/>
     </row>
     <row r="10" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="7">
         <v>3</v>
       </c>
-      <c r="B10" s="33" t="s">
+      <c r="B10" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="34"/>
-      <c r="D10" s="27" t="s">
+      <c r="C10" s="30"/>
+      <c r="D10" s="36" t="s">
         <v>36</v>
       </c>
-      <c r="E10" s="27"/>
+      <c r="E10" s="36"/>
       <c r="F10" s="11"/>
     </row>
     <row r="11" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="7">
         <v>4</v>
       </c>
-      <c r="B11" s="27" t="s">
-        <v>10</v>
-      </c>
-      <c r="C11" s="27"/>
-      <c r="D11" s="27" t="s">
+      <c r="B11" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="36"/>
+      <c r="D11" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="E11" s="27"/>
+      <c r="E11" s="36"/>
       <c r="F11" s="11"/>
     </row>
     <row r="12" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="7">
         <v>5</v>
       </c>
-      <c r="B12" s="27" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12" s="27"/>
-      <c r="D12" s="27" t="s">
+      <c r="B12" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="36"/>
+      <c r="D12" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="E12" s="27"/>
+      <c r="E12" s="36"/>
       <c r="F12" s="11"/>
     </row>
     <row r="13" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="7">
         <v>6</v>
       </c>
-      <c r="B13" s="27" t="s">
-        <v>10</v>
-      </c>
-      <c r="C13" s="27"/>
-      <c r="D13" s="27" t="s">
+      <c r="B13" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="36"/>
+      <c r="D13" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="E13" s="27"/>
+      <c r="E13" s="36"/>
       <c r="F13" s="11"/>
     </row>
     <row r="14" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="7">
         <v>7</v>
       </c>
-      <c r="B14" s="27" t="s">
-        <v>10</v>
-      </c>
-      <c r="C14" s="27"/>
-      <c r="D14" s="27" t="s">
-        <v>10</v>
-      </c>
-      <c r="E14" s="27"/>
+      <c r="B14" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" s="36"/>
+      <c r="D14" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="E14" s="36"/>
       <c r="F14" s="11"/>
     </row>
     <row r="15" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="7">
         <v>8</v>
       </c>
-      <c r="B15" s="27" t="s">
-        <v>10</v>
-      </c>
-      <c r="C15" s="27"/>
-      <c r="D15" s="27" t="s">
-        <v>10</v>
-      </c>
-      <c r="E15" s="27"/>
+      <c r="B15" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" s="36"/>
+      <c r="D15" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="E15" s="36"/>
       <c r="F15" s="11"/>
     </row>
     <row r="16" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="7">
         <v>9</v>
       </c>
-      <c r="B16" s="27" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16" s="27"/>
-      <c r="D16" s="27" t="s">
-        <v>10</v>
-      </c>
-      <c r="E16" s="27"/>
+      <c r="B16" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="36"/>
+      <c r="D16" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="E16" s="36"/>
       <c r="F16" s="11"/>
     </row>
     <row r="17" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B17" s="27" t="s">
-        <v>10</v>
-      </c>
-      <c r="C17" s="27"/>
-      <c r="D17" s="27" t="s">
-        <v>10</v>
-      </c>
-      <c r="E17" s="27"/>
+      <c r="B17" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17" s="36"/>
+      <c r="D17" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" s="36"/>
       <c r="F17" s="11"/>
     </row>
     <row r="18" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B18" s="27" t="s">
-        <v>10</v>
-      </c>
-      <c r="C18" s="27"/>
-      <c r="D18" s="27" t="s">
-        <v>10</v>
-      </c>
-      <c r="E18" s="27"/>
+      <c r="B18" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="C18" s="36"/>
+      <c r="D18" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="E18" s="36"/>
       <c r="F18" s="11"/>
     </row>
     <row r="19" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B19" s="27" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="27"/>
-      <c r="D19" s="27" t="s">
-        <v>10</v>
-      </c>
-      <c r="E19" s="27"/>
+      <c r="B19" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19" s="36"/>
+      <c r="D19" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="E19" s="36"/>
       <c r="F19" s="11"/>
     </row>
     <row r="20" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B20" s="27" t="s">
-        <v>10</v>
-      </c>
-      <c r="C20" s="27"/>
-      <c r="D20" s="27" t="s">
-        <v>10</v>
-      </c>
-      <c r="E20" s="27"/>
+      <c r="B20" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20" s="36"/>
+      <c r="D20" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="E20" s="36"/>
       <c r="F20" s="11"/>
     </row>
     <row r="21" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -1621,24 +1814,24 @@
         <v>11</v>
       </c>
       <c r="C21" s="32"/>
-      <c r="D21" s="27" t="s">
-        <v>10</v>
-      </c>
-      <c r="E21" s="27"/>
+      <c r="D21" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="E21" s="36"/>
       <c r="F21" s="11"/>
     </row>
     <row r="22" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B22" s="33" t="s">
+      <c r="B22" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="C22" s="34"/>
-      <c r="D22" s="27" t="s">
-        <v>10</v>
-      </c>
-      <c r="E22" s="27"/>
+      <c r="C22" s="30"/>
+      <c r="D22" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="E22" s="36"/>
       <c r="F22" s="11"/>
     </row>
     <row r="23" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -1649,26 +1842,6 @@
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="A5:E5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="D13:E13"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="B19:C19"/>
     <mergeCell ref="D19:E19"/>
@@ -1685,6 +1858,26 @@
     <mergeCell ref="D14:E14"/>
     <mergeCell ref="B15:C15"/>
     <mergeCell ref="D15:E15"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="A5:E5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:E7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1694,8 +1887,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I140"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21:C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1706,15 +1899,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="101" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="42" t="s">
-        <v>52</v>
-      </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
-      <c r="G1" s="44"/>
+      <c r="A1" s="44" t="s">
+        <v>50</v>
+      </c>
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="46"/>
     </row>
     <row r="2" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
@@ -1755,13 +1948,13 @@
       <c r="G4" s="3"/>
     </row>
     <row r="5" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="48" t="s">
+      <c r="A5" s="55" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="49"/>
-      <c r="C5" s="49"/>
-      <c r="D5" s="49"/>
-      <c r="E5" s="50"/>
+      <c r="B5" s="56"/>
+      <c r="C5" s="56"/>
+      <c r="D5" s="56"/>
+      <c r="E5" s="57"/>
       <c r="F5" s="8"/>
       <c r="G5" s="8"/>
     </row>
@@ -1769,14 +1962,14 @@
       <c r="A6" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="51" t="s">
+      <c r="B6" s="58" t="s">
         <v>33</v>
       </c>
-      <c r="C6" s="51"/>
-      <c r="D6" s="51" t="s">
+      <c r="C6" s="58"/>
+      <c r="D6" s="58" t="s">
         <v>34</v>
       </c>
-      <c r="E6" s="51"/>
+      <c r="E6" s="58"/>
       <c r="F6" s="9"/>
       <c r="G6" s="9"/>
     </row>
@@ -1784,14 +1977,14 @@
       <c r="A7" s="26">
         <v>0</v>
       </c>
-      <c r="B7" s="52" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="53"/>
-      <c r="D7" s="54" t="s">
+      <c r="B7" s="49" t="s">
+        <v>40</v>
+      </c>
+      <c r="C7" s="50"/>
+      <c r="D7" s="59" t="s">
         <v>28</v>
       </c>
-      <c r="E7" s="54"/>
+      <c r="E7" s="59"/>
       <c r="F7" s="10"/>
       <c r="G7" s="10"/>
     </row>
@@ -1799,14 +1992,14 @@
       <c r="A8" s="26">
         <v>1</v>
       </c>
-      <c r="B8" s="52" t="s">
+      <c r="B8" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="53"/>
-      <c r="D8" s="55" t="s">
+      <c r="C8" s="50"/>
+      <c r="D8" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="E8" s="55"/>
+      <c r="E8" s="48"/>
       <c r="F8" s="11"/>
       <c r="G8" s="11"/>
     </row>
@@ -1814,14 +2007,14 @@
       <c r="A9" s="26">
         <v>2</v>
       </c>
-      <c r="B9" s="56" t="s">
+      <c r="B9" s="51" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="57"/>
-      <c r="D9" s="55" t="s">
+      <c r="C9" s="52"/>
+      <c r="D9" s="48" t="s">
         <v>35</v>
       </c>
-      <c r="E9" s="55"/>
+      <c r="E9" s="48"/>
       <c r="F9" s="11"/>
       <c r="G9" s="11"/>
     </row>
@@ -1829,14 +2022,14 @@
       <c r="A10" s="26">
         <v>3</v>
       </c>
-      <c r="B10" s="56" t="s">
+      <c r="B10" s="51" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="57"/>
-      <c r="D10" s="55" t="s">
+      <c r="C10" s="52"/>
+      <c r="D10" s="48" t="s">
         <v>36</v>
       </c>
-      <c r="E10" s="55"/>
+      <c r="E10" s="48"/>
       <c r="F10" s="11"/>
       <c r="G10" s="11"/>
     </row>
@@ -1844,14 +2037,14 @@
       <c r="A11" s="26">
         <v>4</v>
       </c>
-      <c r="B11" s="55" t="s">
-        <v>40</v>
-      </c>
-      <c r="C11" s="55"/>
-      <c r="D11" s="55" t="s">
+      <c r="B11" s="48" t="s">
+        <v>93</v>
+      </c>
+      <c r="C11" s="48"/>
+      <c r="D11" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="E11" s="55"/>
+      <c r="E11" s="48"/>
       <c r="F11" s="11"/>
       <c r="G11" s="11"/>
     </row>
@@ -1859,14 +2052,14 @@
       <c r="A12" s="26">
         <v>5</v>
       </c>
-      <c r="B12" s="55" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12" s="55"/>
-      <c r="D12" s="55" t="s">
+      <c r="B12" s="48" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="48"/>
+      <c r="D12" s="48" t="s">
         <v>18</v>
       </c>
-      <c r="E12" s="55"/>
+      <c r="E12" s="48"/>
       <c r="F12" s="11"/>
       <c r="G12" s="11"/>
     </row>
@@ -1874,14 +2067,14 @@
       <c r="A13" s="26">
         <v>6</v>
       </c>
-      <c r="B13" s="55" t="s">
-        <v>10</v>
-      </c>
-      <c r="C13" s="55"/>
-      <c r="D13" s="55" t="s">
+      <c r="B13" s="48" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="48"/>
+      <c r="D13" s="48" t="s">
         <v>19</v>
       </c>
-      <c r="E13" s="55"/>
+      <c r="E13" s="48"/>
       <c r="F13" s="11"/>
       <c r="G13" s="11"/>
     </row>
@@ -1889,14 +2082,14 @@
       <c r="A14" s="26">
         <v>7</v>
       </c>
-      <c r="B14" s="55" t="s">
-        <v>10</v>
-      </c>
-      <c r="C14" s="55"/>
-      <c r="D14" s="55" t="s">
-        <v>10</v>
-      </c>
-      <c r="E14" s="55"/>
+      <c r="B14" s="48" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" s="48"/>
+      <c r="D14" s="48" t="s">
+        <v>10</v>
+      </c>
+      <c r="E14" s="48"/>
       <c r="F14" s="11"/>
       <c r="G14" s="11"/>
     </row>
@@ -1904,14 +2097,14 @@
       <c r="A15" s="26">
         <v>8</v>
       </c>
-      <c r="B15" s="55" t="s">
-        <v>10</v>
-      </c>
-      <c r="C15" s="55"/>
-      <c r="D15" s="55" t="s">
-        <v>10</v>
-      </c>
-      <c r="E15" s="55"/>
+      <c r="B15" s="48" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" s="48"/>
+      <c r="D15" s="48" t="s">
+        <v>10</v>
+      </c>
+      <c r="E15" s="48"/>
       <c r="F15" s="11"/>
       <c r="G15" s="11"/>
     </row>
@@ -1919,14 +2112,14 @@
       <c r="A16" s="26">
         <v>9</v>
       </c>
-      <c r="B16" s="55" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16" s="55"/>
-      <c r="D16" s="55" t="s">
-        <v>10</v>
-      </c>
-      <c r="E16" s="55"/>
+      <c r="B16" s="48" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="48"/>
+      <c r="D16" s="48" t="s">
+        <v>10</v>
+      </c>
+      <c r="E16" s="48"/>
       <c r="F16" s="11"/>
       <c r="G16" s="11"/>
     </row>
@@ -1934,14 +2127,14 @@
       <c r="A17" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="B17" s="55" t="s">
-        <v>10</v>
-      </c>
-      <c r="C17" s="55"/>
-      <c r="D17" s="55" t="s">
-        <v>10</v>
-      </c>
-      <c r="E17" s="55"/>
+      <c r="B17" s="48" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17" s="48"/>
+      <c r="D17" s="48" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" s="48"/>
       <c r="F17" s="11"/>
       <c r="G17" s="11"/>
     </row>
@@ -1949,14 +2142,14 @@
       <c r="A18" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="B18" s="55" t="s">
-        <v>10</v>
-      </c>
-      <c r="C18" s="55"/>
-      <c r="D18" s="55" t="s">
-        <v>10</v>
-      </c>
-      <c r="E18" s="55"/>
+      <c r="B18" s="48" t="s">
+        <v>10</v>
+      </c>
+      <c r="C18" s="48"/>
+      <c r="D18" s="48" t="s">
+        <v>10</v>
+      </c>
+      <c r="E18" s="48"/>
       <c r="F18" s="11"/>
       <c r="G18" s="11"/>
     </row>
@@ -1964,14 +2157,14 @@
       <c r="A19" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="B19" s="55" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="55"/>
-      <c r="D19" s="55" t="s">
-        <v>10</v>
-      </c>
-      <c r="E19" s="55"/>
+      <c r="B19" s="48" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19" s="48"/>
+      <c r="D19" s="48" t="s">
+        <v>10</v>
+      </c>
+      <c r="E19" s="48"/>
       <c r="F19" s="11"/>
       <c r="G19" s="11"/>
     </row>
@@ -1979,14 +2172,14 @@
       <c r="A20" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="B20" s="55" t="s">
-        <v>10</v>
-      </c>
-      <c r="C20" s="55"/>
-      <c r="D20" s="55" t="s">
-        <v>10</v>
-      </c>
-      <c r="E20" s="55"/>
+      <c r="B20" s="48" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20" s="48"/>
+      <c r="D20" s="48" t="s">
+        <v>10</v>
+      </c>
+      <c r="E20" s="48"/>
       <c r="F20" s="11"/>
       <c r="G20" s="11"/>
     </row>
@@ -1994,14 +2187,14 @@
       <c r="A21" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="B21" s="52" t="s">
+      <c r="B21" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="C21" s="53"/>
-      <c r="D21" s="55" t="s">
-        <v>10</v>
-      </c>
-      <c r="E21" s="55"/>
+      <c r="C21" s="50"/>
+      <c r="D21" s="48" t="s">
+        <v>10</v>
+      </c>
+      <c r="E21" s="48"/>
       <c r="F21" s="11"/>
       <c r="G21" s="11"/>
     </row>
@@ -2009,14 +2202,14 @@
       <c r="A22" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="B22" s="56" t="s">
+      <c r="B22" s="51" t="s">
         <v>12</v>
       </c>
-      <c r="C22" s="57"/>
-      <c r="D22" s="55" t="s">
-        <v>10</v>
-      </c>
-      <c r="E22" s="55"/>
+      <c r="C22" s="52"/>
+      <c r="D22" s="48" t="s">
+        <v>10</v>
+      </c>
+      <c r="E22" s="48"/>
       <c r="F22" s="11"/>
       <c r="G22" s="11"/>
     </row>
@@ -2027,17 +2220,17 @@
       <c r="D23" s="1"/>
     </row>
     <row r="24" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="45" t="s">
-        <v>53</v>
-      </c>
-      <c r="B24" s="45"/>
+      <c r="A24" s="53" t="s">
+        <v>51</v>
+      </c>
+      <c r="B24" s="53"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
     </row>
     <row r="25" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="21" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B25" s="22">
         <v>9099</v>
@@ -2048,10 +2241,10 @@
     </row>
     <row r="26" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="21" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B26" s="21" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -2062,10 +2255,10 @@
     </row>
     <row r="27" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="21" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B27" s="21" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
@@ -2076,10 +2269,10 @@
     </row>
     <row r="28" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="21" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B28" s="21" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -2090,10 +2283,10 @@
     </row>
     <row r="29" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="21" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B29" s="21" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
@@ -2104,10 +2297,10 @@
     </row>
     <row r="30" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="21" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B30" s="21" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
@@ -2118,10 +2311,10 @@
     </row>
     <row r="31" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="21" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B31" s="21" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
@@ -2141,11 +2334,11 @@
       <c r="I32" s="1"/>
     </row>
     <row r="33" spans="1:9" ht="32" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="46" t="s">
-        <v>68</v>
-      </c>
-      <c r="B33" s="46"/>
-      <c r="C33" s="46"/>
+      <c r="A33" s="54" t="s">
+        <v>66</v>
+      </c>
+      <c r="B33" s="54"/>
+      <c r="C33" s="54"/>
       <c r="D33" s="20"/>
       <c r="E33" s="20"/>
       <c r="F33" s="1"/>
@@ -2157,7 +2350,7 @@
         <v>0</v>
       </c>
       <c r="B34" s="47" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C34" s="47"/>
       <c r="D34" s="1"/>
@@ -2168,10 +2361,10 @@
     </row>
     <row r="35" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="24" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B35" s="47" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C35" s="47"/>
       <c r="D35" s="1"/>
@@ -2182,10 +2375,10 @@
     </row>
     <row r="36" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="24" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B36" s="47" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C36" s="47"/>
       <c r="D36" s="1"/>
@@ -2196,10 +2389,10 @@
     </row>
     <row r="37" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="25" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B37" s="47" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C37" s="47"/>
       <c r="D37" s="1"/>
@@ -2210,10 +2403,10 @@
     </row>
     <row r="38" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="25" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B38" s="47" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C38" s="47"/>
       <c r="D38" s="1"/>
@@ -3178,6 +3371,36 @@
     </row>
   </sheetData>
   <mergeCells count="43">
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A5:E5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:E19"/>
     <mergeCell ref="B36:C36"/>
     <mergeCell ref="B38:C38"/>
     <mergeCell ref="B37:C37"/>
@@ -3187,40 +3410,10 @@
     <mergeCell ref="D21:E21"/>
     <mergeCell ref="B22:C22"/>
     <mergeCell ref="D22:E22"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:E13"/>
     <mergeCell ref="A24:B24"/>
     <mergeCell ref="A33:C33"/>
     <mergeCell ref="B34:C34"/>
     <mergeCell ref="B35:C35"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A5:E5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:E10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -3229,10 +3422,138 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B16"/>
+  <sheetViews>
+    <sheetView topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="41.6640625" customWidth="1"/>
+    <col min="2" max="2" width="92.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="366" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="60"/>
+      <c r="B1" s="60"/>
+    </row>
+    <row r="2" spans="1:2" ht="355" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="61" t="s">
+        <v>75</v>
+      </c>
+      <c r="B2" s="61"/>
+    </row>
+    <row r="3" spans="1:2" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="62" t="s">
+        <v>91</v>
+      </c>
+      <c r="B3" s="27" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="63"/>
+      <c r="B4" s="27" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="64"/>
+      <c r="B5" s="27" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="65" t="s">
+        <v>76</v>
+      </c>
+      <c r="B6" s="28" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="66"/>
+      <c r="B7" s="28" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="66"/>
+      <c r="B8" s="28" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="67"/>
+      <c r="B9" s="28" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="65" t="s">
+        <v>79</v>
+      </c>
+      <c r="B10" s="28" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="66"/>
+      <c r="B11" s="28" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="66"/>
+      <c r="B12" s="28" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="67"/>
+      <c r="B13" s="28" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="65" t="s">
+        <v>84</v>
+      </c>
+      <c r="B14" s="28" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="67"/>
+      <c r="B15" s="28" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A6:A9"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3242,10 +3563,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="65" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="68" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="59"/>
+      <c r="B1" s="69"/>
     </row>
     <row r="2" spans="1:2" ht="24" x14ac:dyDescent="0.2">
       <c r="A2" s="18" t="s">
@@ -3272,8 +3593,12 @@
       </c>
     </row>
     <row r="5" spans="1:2" ht="216" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="18"/>
-      <c r="B5" s="19"/>
+      <c r="A5" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="B5" s="17" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="6" spans="1:2" ht="216" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="18"/>
@@ -3315,12 +3640,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:F2"/>
+      <selection activeCell="C4" sqref="C4:F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3328,66 +3653,70 @@
     <col min="1" max="1" width="36" customWidth="1"/>
     <col min="3" max="3" width="35.5" customWidth="1"/>
     <col min="4" max="4" width="22.1640625" customWidth="1"/>
-    <col min="6" max="6" width="72.6640625" customWidth="1"/>
+    <col min="6" max="6" width="115.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="67" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="68" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="59"/>
-    </row>
-    <row r="2" spans="1:6" ht="288" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="60" t="s">
+      <c r="B1" s="73"/>
+      <c r="C1" s="73"/>
+      <c r="D1" s="73"/>
+      <c r="E1" s="73"/>
+      <c r="F1" s="69"/>
+    </row>
+    <row r="2" spans="1:6" ht="103" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="70" t="s">
         <v>49</v>
       </c>
-      <c r="B2" s="61"/>
-      <c r="C2" s="42" t="s">
-        <v>51</v>
-      </c>
-      <c r="D2" s="64"/>
-      <c r="E2" s="64"/>
+      <c r="B2" s="71"/>
+      <c r="C2" s="44" t="s">
+        <v>94</v>
+      </c>
+      <c r="D2" s="74"/>
+      <c r="E2" s="74"/>
       <c r="F2" s="32"/>
     </row>
-    <row r="3" spans="1:6" ht="288" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="60" t="s">
+    <row r="3" spans="1:6" ht="132" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="70" t="s">
         <v>48</v>
       </c>
-      <c r="B3" s="61"/>
-      <c r="C3" s="42" t="s">
-        <v>50</v>
-      </c>
-      <c r="D3" s="64"/>
-      <c r="E3" s="64"/>
+      <c r="B3" s="71"/>
+      <c r="C3" s="44" t="s">
+        <v>95</v>
+      </c>
+      <c r="D3" s="74"/>
+      <c r="E3" s="74"/>
       <c r="F3" s="32"/>
     </row>
-    <row r="4" spans="1:6" ht="288" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="60"/>
-      <c r="B4" s="61"/>
-      <c r="C4" s="62"/>
-      <c r="D4" s="62"/>
-      <c r="E4" s="62"/>
-      <c r="F4" s="61"/>
+    <row r="4" spans="1:6" ht="133" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="70" t="s">
+        <v>96</v>
+      </c>
+      <c r="B4" s="71"/>
+      <c r="C4" s="44" t="s">
+        <v>97</v>
+      </c>
+      <c r="D4" s="74"/>
+      <c r="E4" s="74"/>
+      <c r="F4" s="32"/>
     </row>
     <row r="5" spans="1:6" ht="288" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="60"/>
-      <c r="B5" s="61"/>
-      <c r="C5" s="62"/>
-      <c r="D5" s="62"/>
-      <c r="E5" s="62"/>
-      <c r="F5" s="61"/>
+      <c r="A5" s="70"/>
+      <c r="B5" s="71"/>
+      <c r="C5" s="72"/>
+      <c r="D5" s="72"/>
+      <c r="E5" s="72"/>
+      <c r="F5" s="71"/>
     </row>
     <row r="6" spans="1:6" ht="288" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="60"/>
-      <c r="B6" s="61"/>
-      <c r="C6" s="62"/>
-      <c r="D6" s="62"/>
-      <c r="E6" s="62"/>
-      <c r="F6" s="61"/>
+      <c r="A6" s="70"/>
+      <c r="B6" s="71"/>
+      <c r="C6" s="72"/>
+      <c r="D6" s="72"/>
+      <c r="E6" s="72"/>
+      <c r="F6" s="71"/>
     </row>
   </sheetData>
   <mergeCells count="11">
